--- a/MOPSO_results/Pareto_results.xlsx
+++ b/MOPSO_results/Pareto_results.xlsx
@@ -8,12 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MOPSO_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F0FC34-5443-4B14-B033-32E4877949DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D39553C-C4CA-4188-9323-BB94981A6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" xr2:uid="{DA06BE81-697E-43A2-B574-9355AF2B6C64}"/>
+    <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{DA06BE81-697E-43A2-B574-9355AF2B6C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -394,116 +403,1276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A45B30-8A78-4AC2-ABFE-A79390D92158}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>389721.90550357138</v>
+        <v>390474.93822777778</v>
       </c>
       <c r="B1">
-        <v>29901.755257750294</v>
+        <v>61652.658072102917</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>389684.06248134922</v>
+        <v>389721.90550357138</v>
       </c>
       <c r="B2">
-        <v>29901.705832581225</v>
+        <v>61625.257750297576</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>384033.2894238095</v>
+        <v>389684.06248134922</v>
       </c>
       <c r="B3">
-        <v>29901.616409227103</v>
+        <v>61575.8325812236</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>379371.49345753971</v>
+        <v>387330.902797619</v>
       </c>
       <c r="B4">
-        <v>29901.604074412997</v>
+        <v>61571.515197111919</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>378598.73207817459</v>
+        <v>386866.01374523807</v>
       </c>
       <c r="B5">
-        <v>29901.596825568493</v>
+        <v>61505.040434063041</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>377675.75499484129</v>
+        <v>384033.2894238095</v>
       </c>
       <c r="B6">
-        <v>29901.520686975913</v>
+        <v>61486.40922710859</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>375314.31564365083</v>
+        <v>381664.05474047619</v>
       </c>
       <c r="B7">
-        <v>29901.492272659711</v>
+        <v>61424.609705344468</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>365114.93293134915</v>
+        <v>377675.75499484129</v>
       </c>
       <c r="B8">
-        <v>29901.479937475535</v>
+        <v>61390.686975914636</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>362466.46432658733</v>
+        <v>375314.31564365083</v>
       </c>
       <c r="B9">
-        <v>29901.464070050486</v>
+        <v>61362.272659710936</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>360565.27707896824</v>
+        <v>365114.93293134915</v>
       </c>
       <c r="B10">
-        <v>29901.4361337072</v>
+        <v>61349.937475529812</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>356759.7807234127</v>
+        <v>362466.46432658733</v>
       </c>
       <c r="B11">
-        <v>29901.433460818454</v>
+        <v>61334.070050483402</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>349477.8399900794</v>
+        <v>360565.27707896824</v>
       </c>
       <c r="B12">
-        <v>29901.428881506734</v>
+        <v>61306.133707201319</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>342049.30038253969</v>
+        <v>356759.7807234127</v>
       </c>
       <c r="B13">
-        <v>29901.417646729682</v>
+        <v>61303.46081845247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>352011.61565952376</v>
+      </c>
+      <c r="B14">
+        <v>61281.76872086474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8511AB95-20E5-4A85-9F70-D35BE292865D}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>390474.93822777778</v>
+      </c>
+      <c r="B1">
+        <v>61652.658072102917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>389721.90550357138</v>
+      </c>
+      <c r="B2">
+        <v>61625.257750297576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>389684.06248134922</v>
+      </c>
+      <c r="B3">
+        <v>61575.8325812236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>387330.902797619</v>
+      </c>
+      <c r="B4">
+        <v>61571.515197111919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>386866.01374523807</v>
+      </c>
+      <c r="B5">
+        <v>61505.040434063041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>384033.2894238095</v>
+      </c>
+      <c r="B6">
+        <v>61486.40922710859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>381664.05474047619</v>
+      </c>
+      <c r="B7">
+        <v>61424.609705344468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>377675.75499484129</v>
+      </c>
+      <c r="B8">
+        <v>61390.686975914636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>375314.31564365083</v>
+      </c>
+      <c r="B9">
+        <v>61362.272659710936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>365114.93293134915</v>
+      </c>
+      <c r="B10">
+        <v>61349.937475529812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>362466.46432658733</v>
+      </c>
+      <c r="B11">
+        <v>61334.070050483402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>360565.27707896824</v>
+      </c>
+      <c r="B12">
+        <v>61306.133707201319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>356759.7807234127</v>
+      </c>
+      <c r="B13">
+        <v>61303.46081845247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>352011.61565952376</v>
+      </c>
+      <c r="B14">
+        <v>61281.76872086474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024A5078-8C58-4D90-8C2E-7D46950935A2}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>390474.93822777778</v>
+      </c>
+      <c r="B1">
+        <v>61652.658072102917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>389721.90550357138</v>
+      </c>
+      <c r="B2">
+        <v>61625.257750297576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>389684.06248134922</v>
+      </c>
+      <c r="B3">
+        <v>61575.8325812236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>387330.902797619</v>
+      </c>
+      <c r="B4">
+        <v>61571.515197111919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>386866.01374523807</v>
+      </c>
+      <c r="B5">
+        <v>61505.040434063041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>384033.2894238095</v>
+      </c>
+      <c r="B6">
+        <v>61486.40922710859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>381664.05474047619</v>
+      </c>
+      <c r="B7">
+        <v>61424.609705344468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>377675.75499484129</v>
+      </c>
+      <c r="B8">
+        <v>61390.686975914636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>375314.31564365083</v>
+      </c>
+      <c r="B9">
+        <v>61362.272659710936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>365114.93293134915</v>
+      </c>
+      <c r="B10">
+        <v>61349.937475529812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>362466.46432658733</v>
+      </c>
+      <c r="B11">
+        <v>61334.070050483402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>360565.27707896824</v>
+      </c>
+      <c r="B12">
+        <v>61306.133707201319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>356759.7807234127</v>
+      </c>
+      <c r="B13">
+        <v>61303.46081845247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>352011.61565952376</v>
+      </c>
+      <c r="B14">
+        <v>61281.76872086474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E326D77F-5AD3-40D1-8C34-20245EBFC306}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>390474.93822777778</v>
+      </c>
+      <c r="B1">
+        <v>61652.658072102917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>389721.90550357138</v>
+      </c>
+      <c r="B2">
+        <v>61625.257750297576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>389684.06248134922</v>
+      </c>
+      <c r="B3">
+        <v>61575.8325812236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>387330.902797619</v>
+      </c>
+      <c r="B4">
+        <v>61571.515197111919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>386866.01374523807</v>
+      </c>
+      <c r="B5">
+        <v>61505.040434063041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>384033.2894238095</v>
+      </c>
+      <c r="B6">
+        <v>61486.40922710859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>381664.05474047619</v>
+      </c>
+      <c r="B7">
+        <v>61424.609705344468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>377675.75499484129</v>
+      </c>
+      <c r="B8">
+        <v>61390.686975914636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>375314.31564365083</v>
+      </c>
+      <c r="B9">
+        <v>61362.272659710936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>365114.93293134915</v>
+      </c>
+      <c r="B10">
+        <v>61349.937475529812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>362466.46432658733</v>
+      </c>
+      <c r="B11">
+        <v>61334.070050483402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>360565.27707896824</v>
+      </c>
+      <c r="B12">
+        <v>61306.133707201319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>356759.7807234127</v>
+      </c>
+      <c r="B13">
+        <v>61303.46081845247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>352011.61565952376</v>
+      </c>
+      <c r="B14">
+        <v>61281.76872086474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6D7D8D-D9C1-4846-872B-EDB1FC85E4ED}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>390474.93822777778</v>
+      </c>
+      <c r="B1">
+        <v>61652.658072102917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>389721.90550357138</v>
+      </c>
+      <c r="B2">
+        <v>61625.257750297576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>389684.06248134922</v>
+      </c>
+      <c r="B3">
+        <v>61575.8325812236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>387330.902797619</v>
+      </c>
+      <c r="B4">
+        <v>61571.515197111919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>386866.01374523807</v>
+      </c>
+      <c r="B5">
+        <v>61505.040434063041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>384033.2894238095</v>
+      </c>
+      <c r="B6">
+        <v>61486.40922710859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>381664.05474047619</v>
+      </c>
+      <c r="B7">
+        <v>61424.609705344468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>377675.75499484129</v>
+      </c>
+      <c r="B8">
+        <v>61390.686975914636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>375314.31564365083</v>
+      </c>
+      <c r="B9">
+        <v>61362.272659710936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>365114.93293134915</v>
+      </c>
+      <c r="B10">
+        <v>61349.937475529812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>362466.46432658733</v>
+      </c>
+      <c r="B11">
+        <v>61334.070050483402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>360565.27707896824</v>
+      </c>
+      <c r="B12">
+        <v>61306.133707201319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>356759.7807234127</v>
+      </c>
+      <c r="B13">
+        <v>61303.46081845247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>352011.61565952376</v>
+      </c>
+      <c r="B14">
+        <v>61281.76872086474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0884A1-79AD-411B-838A-B111B71757A2}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>390474.93822777778</v>
+      </c>
+      <c r="B1">
+        <v>61652.658072102917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>389721.90550357138</v>
+      </c>
+      <c r="B2">
+        <v>61625.257750297576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>389684.06248134922</v>
+      </c>
+      <c r="B3">
+        <v>61575.8325812236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>387330.902797619</v>
+      </c>
+      <c r="B4">
+        <v>61571.515197111919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>386866.01374523807</v>
+      </c>
+      <c r="B5">
+        <v>61505.040434063041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>384033.2894238095</v>
+      </c>
+      <c r="B6">
+        <v>61486.40922710859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>381664.05474047619</v>
+      </c>
+      <c r="B7">
+        <v>61424.609705344468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>377675.75499484129</v>
+      </c>
+      <c r="B8">
+        <v>61390.686975914636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>375314.31564365083</v>
+      </c>
+      <c r="B9">
+        <v>61362.272659710936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>365114.93293134915</v>
+      </c>
+      <c r="B10">
+        <v>61349.937475529812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>362466.46432658733</v>
+      </c>
+      <c r="B11">
+        <v>61334.070050483402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>360565.27707896824</v>
+      </c>
+      <c r="B12">
+        <v>61306.133707201319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>356759.7807234127</v>
+      </c>
+      <c r="B13">
+        <v>61303.46081845247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>352011.61565952376</v>
+      </c>
+      <c r="B14">
+        <v>61281.76872086474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E7393E-B3F8-4C60-AB58-44A469891860}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>390474.93822777778</v>
+      </c>
+      <c r="B1">
+        <v>61652.658072102917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>389721.90550357138</v>
+      </c>
+      <c r="B2">
+        <v>61625.257750297576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>389684.06248134922</v>
+      </c>
+      <c r="B3">
+        <v>61575.8325812236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>387330.902797619</v>
+      </c>
+      <c r="B4">
+        <v>61571.515197111919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>386866.01374523807</v>
+      </c>
+      <c r="B5">
+        <v>61505.040434063041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>384033.2894238095</v>
+      </c>
+      <c r="B6">
+        <v>61486.40922710859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>381664.05474047619</v>
+      </c>
+      <c r="B7">
+        <v>61424.609705344468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>377675.75499484129</v>
+      </c>
+      <c r="B8">
+        <v>61390.686975914636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>375314.31564365083</v>
+      </c>
+      <c r="B9">
+        <v>61362.272659710936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>365114.93293134915</v>
+      </c>
+      <c r="B10">
+        <v>61349.937475529812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>362466.46432658733</v>
+      </c>
+      <c r="B11">
+        <v>61334.070050483402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>360565.27707896824</v>
+      </c>
+      <c r="B12">
+        <v>61306.133707201319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>356759.7807234127</v>
+      </c>
+      <c r="B13">
+        <v>61303.46081845247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>352011.61565952376</v>
+      </c>
+      <c r="B14">
+        <v>61281.76872086474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647D826C-D9B7-4C4D-B552-46BDA88FE7F7}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>390474.93822777778</v>
+      </c>
+      <c r="B1">
+        <v>61652.658072102917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>389721.90550357138</v>
+      </c>
+      <c r="B2">
+        <v>61625.257750297576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>389684.06248134922</v>
+      </c>
+      <c r="B3">
+        <v>61575.8325812236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>387330.902797619</v>
+      </c>
+      <c r="B4">
+        <v>61571.515197111919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>386866.01374523807</v>
+      </c>
+      <c r="B5">
+        <v>61505.040434063041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>384033.2894238095</v>
+      </c>
+      <c r="B6">
+        <v>61486.40922710859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>381664.05474047619</v>
+      </c>
+      <c r="B7">
+        <v>61424.609705344468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>377675.75499484129</v>
+      </c>
+      <c r="B8">
+        <v>61390.686975914636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>375314.31564365083</v>
+      </c>
+      <c r="B9">
+        <v>61362.272659710936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>365114.93293134915</v>
+      </c>
+      <c r="B10">
+        <v>61349.937475529812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>362466.46432658733</v>
+      </c>
+      <c r="B11">
+        <v>61334.070050483402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>360565.27707896824</v>
+      </c>
+      <c r="B12">
+        <v>61306.133707201319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>356759.7807234127</v>
+      </c>
+      <c r="B13">
+        <v>61303.46081845247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>352011.61565952376</v>
+      </c>
+      <c r="B14">
+        <v>61281.76872086474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBF83AA-9C42-4826-AA21-D1D1A7568931}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>390474.93822777778</v>
+      </c>
+      <c r="B1">
+        <v>61652.658072102917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>389721.90550357138</v>
+      </c>
+      <c r="B2">
+        <v>61625.257750297576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>389684.06248134922</v>
+      </c>
+      <c r="B3">
+        <v>61575.8325812236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>387330.902797619</v>
+      </c>
+      <c r="B4">
+        <v>61571.515197111919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>386866.01374523807</v>
+      </c>
+      <c r="B5">
+        <v>61505.040434063041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>384033.2894238095</v>
+      </c>
+      <c r="B6">
+        <v>61486.40922710859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>381664.05474047619</v>
+      </c>
+      <c r="B7">
+        <v>61424.609705344468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>377675.75499484129</v>
+      </c>
+      <c r="B8">
+        <v>61390.686975914636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>375314.31564365083</v>
+      </c>
+      <c r="B9">
+        <v>61362.272659710936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>365114.93293134915</v>
+      </c>
+      <c r="B10">
+        <v>61349.937475529812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>362466.46432658733</v>
+      </c>
+      <c r="B11">
+        <v>61334.070050483402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>360565.27707896824</v>
+      </c>
+      <c r="B12">
+        <v>61306.133707201319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>356759.7807234127</v>
+      </c>
+      <c r="B13">
+        <v>61303.46081845247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>352011.61565952376</v>
+      </c>
+      <c r="B14">
+        <v>61281.76872086474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CA1887-3081-4974-828B-E55B641372E7}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>390474.93822777778</v>
+      </c>
+      <c r="B1">
+        <v>61652.658072102917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>389721.90550357138</v>
+      </c>
+      <c r="B2">
+        <v>61625.257750297576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>389684.06248134922</v>
+      </c>
+      <c r="B3">
+        <v>61575.8325812236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>387330.902797619</v>
+      </c>
+      <c r="B4">
+        <v>61571.515197111919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>386866.01374523807</v>
+      </c>
+      <c r="B5">
+        <v>61505.040434063041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>384033.2894238095</v>
+      </c>
+      <c r="B6">
+        <v>61486.40922710859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>381664.05474047619</v>
+      </c>
+      <c r="B7">
+        <v>61424.609705344468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>377675.75499484129</v>
+      </c>
+      <c r="B8">
+        <v>61390.686975914636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>375314.31564365083</v>
+      </c>
+      <c r="B9">
+        <v>61362.272659710936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>365114.93293134915</v>
+      </c>
+      <c r="B10">
+        <v>61349.937475529812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>362466.46432658733</v>
+      </c>
+      <c r="B11">
+        <v>61334.070050483402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>360565.27707896824</v>
+      </c>
+      <c r="B12">
+        <v>61306.133707201319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>356759.7807234127</v>
+      </c>
+      <c r="B13">
+        <v>61303.46081845247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>352011.61565952376</v>
+      </c>
+      <c r="B14">
+        <v>61281.76872086474</v>
       </c>
     </row>
   </sheetData>

--- a/MOPSO_results/Pareto_results.xlsx
+++ b/MOPSO_results/Pareto_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MOPSO_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D39553C-C4CA-4188-9323-BB94981A6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8B7FD7-67D5-42D3-917F-51170448B0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{DA06BE81-697E-43A2-B574-9355AF2B6C64}"/>
   </bookViews>
@@ -403,124 +403,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A45B30-8A78-4AC2-ABFE-A79390D92158}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>390474.93822777778</v>
+        <v>278353.88481230161</v>
       </c>
       <c r="B1">
-        <v>61652.658072102917</v>
+        <v>153432.95588647359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>389721.90550357138</v>
+        <v>277532.50921349204</v>
       </c>
       <c r="B2">
-        <v>61625.257750297576</v>
+        <v>152065.17524004306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>389684.06248134922</v>
+        <v>276563.82535555557</v>
       </c>
       <c r="B3">
-        <v>61575.8325812236</v>
+        <v>151835.92721689347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>387330.902797619</v>
+        <v>275696.50525595236</v>
       </c>
       <c r="B4">
-        <v>61571.515197111919</v>
+        <v>151782.30671161175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>386866.01374523807</v>
+        <v>275584.31405039685</v>
       </c>
       <c r="B5">
-        <v>61505.040434063041</v>
+        <v>151748.47452092331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>384033.2894238095</v>
+        <v>275520.82948293653</v>
       </c>
       <c r="B6">
-        <v>61486.40922710859</v>
+        <v>151726.72795537105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>381664.05474047619</v>
+        <v>275269.11548174603</v>
       </c>
       <c r="B7">
-        <v>61424.609705344468</v>
+        <v>151635.13920863273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>377675.75499484129</v>
+        <v>275152.55289682536</v>
       </c>
       <c r="B8">
-        <v>61390.686975914636</v>
+        <v>151587.67739593453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>375314.31564365083</v>
+        <v>275123.85744841269</v>
       </c>
       <c r="B9">
-        <v>61362.272659710936</v>
+        <v>151477.76384395093</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>365114.93293134915</v>
+        <v>274798.76090793649</v>
       </c>
       <c r="B10">
-        <v>61349.937475529812</v>
+        <v>151315.2223158463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>362466.46432658733</v>
+        <v>273915.41748571431</v>
       </c>
       <c r="B11">
-        <v>61334.070050483402</v>
+        <v>151304.63877445029</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>360565.27707896824</v>
+        <v>273580.07773809525</v>
       </c>
       <c r="B12">
-        <v>61306.133707201319</v>
+        <v>151151.22137871603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>356759.7807234127</v>
+        <v>273159.98264722223</v>
       </c>
       <c r="B13">
-        <v>61303.46081845247</v>
+        <v>151025.85616162923</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>352011.61565952376</v>
+        <v>272374.03662619047</v>
       </c>
       <c r="B14">
-        <v>61281.76872086474</v>
+        <v>150820.14271791102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>272321.49214126985</v>
+      </c>
+      <c r="B15">
+        <v>150817.86997148543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>271260.0452126984</v>
+      </c>
+      <c r="B16">
+        <v>150802.01547310821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>270609.05956349208</v>
+      </c>
+      <c r="B17">
+        <v>150770.36765832157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>270334.10064999998</v>
+      </c>
+      <c r="B18">
+        <v>150713.09096264327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>270165.73944166669</v>
+      </c>
+      <c r="B19">
+        <v>150712.0789702443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>270028.54516984127</v>
+      </c>
+      <c r="B20">
+        <v>150690.27397923282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>269265.96898333333</v>
+      </c>
+      <c r="B21">
+        <v>150606.27298236277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>267076.34619047621</v>
+      </c>
+      <c r="B22">
+        <v>150484.03241833631</v>
       </c>
     </row>
   </sheetData>
@@ -531,124 +595,188 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8511AB95-20E5-4A85-9F70-D35BE292865D}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>390474.93822777778</v>
+        <v>278353.88481230161</v>
       </c>
       <c r="B1">
-        <v>61652.658072102917</v>
+        <v>153432.95588647359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>389721.90550357138</v>
+        <v>277532.50921349204</v>
       </c>
       <c r="B2">
-        <v>61625.257750297576</v>
+        <v>152065.17524004306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>389684.06248134922</v>
+        <v>276563.82535555557</v>
       </c>
       <c r="B3">
-        <v>61575.8325812236</v>
+        <v>151835.92721689347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>387330.902797619</v>
+        <v>275696.50525595236</v>
       </c>
       <c r="B4">
-        <v>61571.515197111919</v>
+        <v>151782.30671161175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>386866.01374523807</v>
+        <v>275584.31405039685</v>
       </c>
       <c r="B5">
-        <v>61505.040434063041</v>
+        <v>151748.47452092331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>384033.2894238095</v>
+        <v>275520.82948293653</v>
       </c>
       <c r="B6">
-        <v>61486.40922710859</v>
+        <v>151726.72795537105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>381664.05474047619</v>
+        <v>275269.11548174603</v>
       </c>
       <c r="B7">
-        <v>61424.609705344468</v>
+        <v>151635.13920863273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>377675.75499484129</v>
+        <v>275152.55289682536</v>
       </c>
       <c r="B8">
-        <v>61390.686975914636</v>
+        <v>151587.67739593453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>375314.31564365083</v>
+        <v>275123.85744841269</v>
       </c>
       <c r="B9">
-        <v>61362.272659710936</v>
+        <v>151477.76384395093</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>365114.93293134915</v>
+        <v>274798.76090793649</v>
       </c>
       <c r="B10">
-        <v>61349.937475529812</v>
+        <v>151315.2223158463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>362466.46432658733</v>
+        <v>273915.41748571431</v>
       </c>
       <c r="B11">
-        <v>61334.070050483402</v>
+        <v>151304.63877445029</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>360565.27707896824</v>
+        <v>273580.07773809525</v>
       </c>
       <c r="B12">
-        <v>61306.133707201319</v>
+        <v>151151.22137871603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>356759.7807234127</v>
+        <v>273159.98264722223</v>
       </c>
       <c r="B13">
-        <v>61303.46081845247</v>
+        <v>151025.85616162923</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>352011.61565952376</v>
+        <v>272374.03662619047</v>
       </c>
       <c r="B14">
-        <v>61281.76872086474</v>
+        <v>150820.14271791102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>272321.49214126985</v>
+      </c>
+      <c r="B15">
+        <v>150817.86997148543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>271260.0452126984</v>
+      </c>
+      <c r="B16">
+        <v>150802.01547310821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>270609.05956349208</v>
+      </c>
+      <c r="B17">
+        <v>150770.36765832157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>270334.10064999998</v>
+      </c>
+      <c r="B18">
+        <v>150713.09096264327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>270165.73944166669</v>
+      </c>
+      <c r="B19">
+        <v>150712.0789702443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>270028.54516984127</v>
+      </c>
+      <c r="B20">
+        <v>150690.27397923282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>269265.96898333333</v>
+      </c>
+      <c r="B21">
+        <v>150606.27298236277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>267076.34619047621</v>
+      </c>
+      <c r="B22">
+        <v>150484.03241833631</v>
       </c>
     </row>
   </sheetData>
@@ -659,124 +787,188 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024A5078-8C58-4D90-8C2E-7D46950935A2}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>390474.93822777778</v>
+        <v>278353.88481230161</v>
       </c>
       <c r="B1">
-        <v>61652.658072102917</v>
+        <v>153432.95588647359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>389721.90550357138</v>
+        <v>277532.50921349204</v>
       </c>
       <c r="B2">
-        <v>61625.257750297576</v>
+        <v>152065.17524004306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>389684.06248134922</v>
+        <v>276563.82535555557</v>
       </c>
       <c r="B3">
-        <v>61575.8325812236</v>
+        <v>151835.92721689347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>387330.902797619</v>
+        <v>275696.50525595236</v>
       </c>
       <c r="B4">
-        <v>61571.515197111919</v>
+        <v>151782.30671161175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>386866.01374523807</v>
+        <v>275584.31405039685</v>
       </c>
       <c r="B5">
-        <v>61505.040434063041</v>
+        <v>151748.47452092331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>384033.2894238095</v>
+        <v>275520.82948293653</v>
       </c>
       <c r="B6">
-        <v>61486.40922710859</v>
+        <v>151726.72795537105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>381664.05474047619</v>
+        <v>275269.11548174603</v>
       </c>
       <c r="B7">
-        <v>61424.609705344468</v>
+        <v>151635.13920863273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>377675.75499484129</v>
+        <v>275152.55289682536</v>
       </c>
       <c r="B8">
-        <v>61390.686975914636</v>
+        <v>151587.67739593453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>375314.31564365083</v>
+        <v>275123.85744841269</v>
       </c>
       <c r="B9">
-        <v>61362.272659710936</v>
+        <v>151477.76384395093</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>365114.93293134915</v>
+        <v>274798.76090793649</v>
       </c>
       <c r="B10">
-        <v>61349.937475529812</v>
+        <v>151315.2223158463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>362466.46432658733</v>
+        <v>273915.41748571431</v>
       </c>
       <c r="B11">
-        <v>61334.070050483402</v>
+        <v>151304.63877445029</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>360565.27707896824</v>
+        <v>273580.07773809525</v>
       </c>
       <c r="B12">
-        <v>61306.133707201319</v>
+        <v>151151.22137871603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>356759.7807234127</v>
+        <v>273159.98264722223</v>
       </c>
       <c r="B13">
-        <v>61303.46081845247</v>
+        <v>151025.85616162923</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>352011.61565952376</v>
+        <v>272374.03662619047</v>
       </c>
       <c r="B14">
-        <v>61281.76872086474</v>
+        <v>150820.14271791102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>272321.49214126985</v>
+      </c>
+      <c r="B15">
+        <v>150817.86997148543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>271260.0452126984</v>
+      </c>
+      <c r="B16">
+        <v>150802.01547310821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>270609.05956349208</v>
+      </c>
+      <c r="B17">
+        <v>150770.36765832157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>270334.10064999998</v>
+      </c>
+      <c r="B18">
+        <v>150713.09096264327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>270165.73944166669</v>
+      </c>
+      <c r="B19">
+        <v>150712.0789702443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>270028.54516984127</v>
+      </c>
+      <c r="B20">
+        <v>150690.27397923282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>269265.96898333333</v>
+      </c>
+      <c r="B21">
+        <v>150606.27298236277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>267076.34619047621</v>
+      </c>
+      <c r="B22">
+        <v>150484.03241833631</v>
       </c>
     </row>
   </sheetData>
@@ -787,124 +979,188 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E326D77F-5AD3-40D1-8C34-20245EBFC306}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>390474.93822777778</v>
+        <v>278353.88481230161</v>
       </c>
       <c r="B1">
-        <v>61652.658072102917</v>
+        <v>153432.95588647359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>389721.90550357138</v>
+        <v>277532.50921349204</v>
       </c>
       <c r="B2">
-        <v>61625.257750297576</v>
+        <v>152065.17524004306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>389684.06248134922</v>
+        <v>276563.82535555557</v>
       </c>
       <c r="B3">
-        <v>61575.8325812236</v>
+        <v>151835.92721689347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>387330.902797619</v>
+        <v>275696.50525595236</v>
       </c>
       <c r="B4">
-        <v>61571.515197111919</v>
+        <v>151782.30671161175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>386866.01374523807</v>
+        <v>275584.31405039685</v>
       </c>
       <c r="B5">
-        <v>61505.040434063041</v>
+        <v>151748.47452092331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>384033.2894238095</v>
+        <v>275520.82948293653</v>
       </c>
       <c r="B6">
-        <v>61486.40922710859</v>
+        <v>151726.72795537105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>381664.05474047619</v>
+        <v>275269.11548174603</v>
       </c>
       <c r="B7">
-        <v>61424.609705344468</v>
+        <v>151635.13920863273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>377675.75499484129</v>
+        <v>275152.55289682536</v>
       </c>
       <c r="B8">
-        <v>61390.686975914636</v>
+        <v>151587.67739593453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>375314.31564365083</v>
+        <v>275123.85744841269</v>
       </c>
       <c r="B9">
-        <v>61362.272659710936</v>
+        <v>151477.76384395093</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>365114.93293134915</v>
+        <v>274798.76090793649</v>
       </c>
       <c r="B10">
-        <v>61349.937475529812</v>
+        <v>151315.2223158463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>362466.46432658733</v>
+        <v>273915.41748571431</v>
       </c>
       <c r="B11">
-        <v>61334.070050483402</v>
+        <v>151304.63877445029</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>360565.27707896824</v>
+        <v>273580.07773809525</v>
       </c>
       <c r="B12">
-        <v>61306.133707201319</v>
+        <v>151151.22137871603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>356759.7807234127</v>
+        <v>273159.98264722223</v>
       </c>
       <c r="B13">
-        <v>61303.46081845247</v>
+        <v>151025.85616162923</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>352011.61565952376</v>
+        <v>272374.03662619047</v>
       </c>
       <c r="B14">
-        <v>61281.76872086474</v>
+        <v>150820.14271791102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>272321.49214126985</v>
+      </c>
+      <c r="B15">
+        <v>150817.86997148543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>271260.0452126984</v>
+      </c>
+      <c r="B16">
+        <v>150802.01547310821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>270609.05956349208</v>
+      </c>
+      <c r="B17">
+        <v>150770.36765832157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>270334.10064999998</v>
+      </c>
+      <c r="B18">
+        <v>150713.09096264327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>270165.73944166669</v>
+      </c>
+      <c r="B19">
+        <v>150712.0789702443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>270028.54516984127</v>
+      </c>
+      <c r="B20">
+        <v>150690.27397923282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>269265.96898333333</v>
+      </c>
+      <c r="B21">
+        <v>150606.27298236277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>267076.34619047621</v>
+      </c>
+      <c r="B22">
+        <v>150484.03241833631</v>
       </c>
     </row>
   </sheetData>
@@ -915,124 +1171,188 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6D7D8D-D9C1-4846-872B-EDB1FC85E4ED}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>390474.93822777778</v>
+        <v>278353.88481230161</v>
       </c>
       <c r="B1">
-        <v>61652.658072102917</v>
+        <v>153432.95588647359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>389721.90550357138</v>
+        <v>277532.50921349204</v>
       </c>
       <c r="B2">
-        <v>61625.257750297576</v>
+        <v>152065.17524004306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>389684.06248134922</v>
+        <v>276563.82535555557</v>
       </c>
       <c r="B3">
-        <v>61575.8325812236</v>
+        <v>151835.92721689347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>387330.902797619</v>
+        <v>275696.50525595236</v>
       </c>
       <c r="B4">
-        <v>61571.515197111919</v>
+        <v>151782.30671161175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>386866.01374523807</v>
+        <v>275584.31405039685</v>
       </c>
       <c r="B5">
-        <v>61505.040434063041</v>
+        <v>151748.47452092331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>384033.2894238095</v>
+        <v>275520.82948293653</v>
       </c>
       <c r="B6">
-        <v>61486.40922710859</v>
+        <v>151726.72795537105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>381664.05474047619</v>
+        <v>275269.11548174603</v>
       </c>
       <c r="B7">
-        <v>61424.609705344468</v>
+        <v>151635.13920863273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>377675.75499484129</v>
+        <v>275152.55289682536</v>
       </c>
       <c r="B8">
-        <v>61390.686975914636</v>
+        <v>151587.67739593453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>375314.31564365083</v>
+        <v>275123.85744841269</v>
       </c>
       <c r="B9">
-        <v>61362.272659710936</v>
+        <v>151477.76384395093</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>365114.93293134915</v>
+        <v>274798.76090793649</v>
       </c>
       <c r="B10">
-        <v>61349.937475529812</v>
+        <v>151315.2223158463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>362466.46432658733</v>
+        <v>273915.41748571431</v>
       </c>
       <c r="B11">
-        <v>61334.070050483402</v>
+        <v>151304.63877445029</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>360565.27707896824</v>
+        <v>273580.07773809525</v>
       </c>
       <c r="B12">
-        <v>61306.133707201319</v>
+        <v>151151.22137871603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>356759.7807234127</v>
+        <v>273159.98264722223</v>
       </c>
       <c r="B13">
-        <v>61303.46081845247</v>
+        <v>151025.85616162923</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>352011.61565952376</v>
+        <v>272374.03662619047</v>
       </c>
       <c r="B14">
-        <v>61281.76872086474</v>
+        <v>150820.14271791102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>272321.49214126985</v>
+      </c>
+      <c r="B15">
+        <v>150817.86997148543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>271260.0452126984</v>
+      </c>
+      <c r="B16">
+        <v>150802.01547310821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>270609.05956349208</v>
+      </c>
+      <c r="B17">
+        <v>150770.36765832157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>270334.10064999998</v>
+      </c>
+      <c r="B18">
+        <v>150713.09096264327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>270165.73944166669</v>
+      </c>
+      <c r="B19">
+        <v>150712.0789702443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>270028.54516984127</v>
+      </c>
+      <c r="B20">
+        <v>150690.27397923282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>269265.96898333333</v>
+      </c>
+      <c r="B21">
+        <v>150606.27298236277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>267076.34619047621</v>
+      </c>
+      <c r="B22">
+        <v>150484.03241833631</v>
       </c>
     </row>
   </sheetData>
@@ -1043,124 +1363,188 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0884A1-79AD-411B-838A-B111B71757A2}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>390474.93822777778</v>
+        <v>278353.88481230161</v>
       </c>
       <c r="B1">
-        <v>61652.658072102917</v>
+        <v>153432.95588647359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>389721.90550357138</v>
+        <v>277532.50921349204</v>
       </c>
       <c r="B2">
-        <v>61625.257750297576</v>
+        <v>152065.17524004306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>389684.06248134922</v>
+        <v>276563.82535555557</v>
       </c>
       <c r="B3">
-        <v>61575.8325812236</v>
+        <v>151835.92721689347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>387330.902797619</v>
+        <v>275696.50525595236</v>
       </c>
       <c r="B4">
-        <v>61571.515197111919</v>
+        <v>151782.30671161175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>386866.01374523807</v>
+        <v>275584.31405039685</v>
       </c>
       <c r="B5">
-        <v>61505.040434063041</v>
+        <v>151748.47452092331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>384033.2894238095</v>
+        <v>275520.82948293653</v>
       </c>
       <c r="B6">
-        <v>61486.40922710859</v>
+        <v>151726.72795537105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>381664.05474047619</v>
+        <v>275269.11548174603</v>
       </c>
       <c r="B7">
-        <v>61424.609705344468</v>
+        <v>151635.13920863273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>377675.75499484129</v>
+        <v>275152.55289682536</v>
       </c>
       <c r="B8">
-        <v>61390.686975914636</v>
+        <v>151587.67739593453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>375314.31564365083</v>
+        <v>275123.85744841269</v>
       </c>
       <c r="B9">
-        <v>61362.272659710936</v>
+        <v>151477.76384395093</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>365114.93293134915</v>
+        <v>274798.76090793649</v>
       </c>
       <c r="B10">
-        <v>61349.937475529812</v>
+        <v>151315.2223158463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>362466.46432658733</v>
+        <v>273915.41748571431</v>
       </c>
       <c r="B11">
-        <v>61334.070050483402</v>
+        <v>151304.63877445029</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>360565.27707896824</v>
+        <v>273580.07773809525</v>
       </c>
       <c r="B12">
-        <v>61306.133707201319</v>
+        <v>151151.22137871603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>356759.7807234127</v>
+        <v>273159.98264722223</v>
       </c>
       <c r="B13">
-        <v>61303.46081845247</v>
+        <v>151025.85616162923</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>352011.61565952376</v>
+        <v>272374.03662619047</v>
       </c>
       <c r="B14">
-        <v>61281.76872086474</v>
+        <v>150820.14271791102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>272321.49214126985</v>
+      </c>
+      <c r="B15">
+        <v>150817.86997148543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>271260.0452126984</v>
+      </c>
+      <c r="B16">
+        <v>150802.01547310821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>270609.05956349208</v>
+      </c>
+      <c r="B17">
+        <v>150770.36765832157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>270334.10064999998</v>
+      </c>
+      <c r="B18">
+        <v>150713.09096264327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>270165.73944166669</v>
+      </c>
+      <c r="B19">
+        <v>150712.0789702443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>270028.54516984127</v>
+      </c>
+      <c r="B20">
+        <v>150690.27397923282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>269265.96898333333</v>
+      </c>
+      <c r="B21">
+        <v>150606.27298236277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>267076.34619047621</v>
+      </c>
+      <c r="B22">
+        <v>150484.03241833631</v>
       </c>
     </row>
   </sheetData>
@@ -1171,124 +1555,188 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E7393E-B3F8-4C60-AB58-44A469891860}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>390474.93822777778</v>
+        <v>278353.88481230161</v>
       </c>
       <c r="B1">
-        <v>61652.658072102917</v>
+        <v>153432.95588647359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>389721.90550357138</v>
+        <v>277532.50921349204</v>
       </c>
       <c r="B2">
-        <v>61625.257750297576</v>
+        <v>152065.17524004306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>389684.06248134922</v>
+        <v>276563.82535555557</v>
       </c>
       <c r="B3">
-        <v>61575.8325812236</v>
+        <v>151835.92721689347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>387330.902797619</v>
+        <v>275696.50525595236</v>
       </c>
       <c r="B4">
-        <v>61571.515197111919</v>
+        <v>151782.30671161175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>386866.01374523807</v>
+        <v>275584.31405039685</v>
       </c>
       <c r="B5">
-        <v>61505.040434063041</v>
+        <v>151748.47452092331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>384033.2894238095</v>
+        <v>275520.82948293653</v>
       </c>
       <c r="B6">
-        <v>61486.40922710859</v>
+        <v>151726.72795537105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>381664.05474047619</v>
+        <v>275269.11548174603</v>
       </c>
       <c r="B7">
-        <v>61424.609705344468</v>
+        <v>151635.13920863273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>377675.75499484129</v>
+        <v>275152.55289682536</v>
       </c>
       <c r="B8">
-        <v>61390.686975914636</v>
+        <v>151587.67739593453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>375314.31564365083</v>
+        <v>275123.85744841269</v>
       </c>
       <c r="B9">
-        <v>61362.272659710936</v>
+        <v>151477.76384395093</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>365114.93293134915</v>
+        <v>274798.76090793649</v>
       </c>
       <c r="B10">
-        <v>61349.937475529812</v>
+        <v>151315.2223158463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>362466.46432658733</v>
+        <v>273915.41748571431</v>
       </c>
       <c r="B11">
-        <v>61334.070050483402</v>
+        <v>151304.63877445029</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>360565.27707896824</v>
+        <v>273580.07773809525</v>
       </c>
       <c r="B12">
-        <v>61306.133707201319</v>
+        <v>151151.22137871603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>356759.7807234127</v>
+        <v>273159.98264722223</v>
       </c>
       <c r="B13">
-        <v>61303.46081845247</v>
+        <v>151025.85616162923</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>352011.61565952376</v>
+        <v>272374.03662619047</v>
       </c>
       <c r="B14">
-        <v>61281.76872086474</v>
+        <v>150820.14271791102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>272321.49214126985</v>
+      </c>
+      <c r="B15">
+        <v>150817.86997148543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>271260.0452126984</v>
+      </c>
+      <c r="B16">
+        <v>150802.01547310821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>270609.05956349208</v>
+      </c>
+      <c r="B17">
+        <v>150770.36765832157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>270334.10064999998</v>
+      </c>
+      <c r="B18">
+        <v>150713.09096264327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>270165.73944166669</v>
+      </c>
+      <c r="B19">
+        <v>150712.0789702443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>270028.54516984127</v>
+      </c>
+      <c r="B20">
+        <v>150690.27397923282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>269265.96898333333</v>
+      </c>
+      <c r="B21">
+        <v>150606.27298236277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>267076.34619047621</v>
+      </c>
+      <c r="B22">
+        <v>150484.03241833631</v>
       </c>
     </row>
   </sheetData>
@@ -1299,124 +1747,188 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647D826C-D9B7-4C4D-B552-46BDA88FE7F7}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>390474.93822777778</v>
+        <v>278353.88481230161</v>
       </c>
       <c r="B1">
-        <v>61652.658072102917</v>
+        <v>153432.95588647359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>389721.90550357138</v>
+        <v>277532.50921349204</v>
       </c>
       <c r="B2">
-        <v>61625.257750297576</v>
+        <v>152065.17524004306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>389684.06248134922</v>
+        <v>276563.82535555557</v>
       </c>
       <c r="B3">
-        <v>61575.8325812236</v>
+        <v>151835.92721689347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>387330.902797619</v>
+        <v>275696.50525595236</v>
       </c>
       <c r="B4">
-        <v>61571.515197111919</v>
+        <v>151782.30671161175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>386866.01374523807</v>
+        <v>275584.31405039685</v>
       </c>
       <c r="B5">
-        <v>61505.040434063041</v>
+        <v>151748.47452092331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>384033.2894238095</v>
+        <v>275520.82948293653</v>
       </c>
       <c r="B6">
-        <v>61486.40922710859</v>
+        <v>151726.72795537105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>381664.05474047619</v>
+        <v>275269.11548174603</v>
       </c>
       <c r="B7">
-        <v>61424.609705344468</v>
+        <v>151635.13920863273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>377675.75499484129</v>
+        <v>275152.55289682536</v>
       </c>
       <c r="B8">
-        <v>61390.686975914636</v>
+        <v>151587.67739593453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>375314.31564365083</v>
+        <v>275123.85744841269</v>
       </c>
       <c r="B9">
-        <v>61362.272659710936</v>
+        <v>151477.76384395093</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>365114.93293134915</v>
+        <v>274798.76090793649</v>
       </c>
       <c r="B10">
-        <v>61349.937475529812</v>
+        <v>151315.2223158463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>362466.46432658733</v>
+        <v>273915.41748571431</v>
       </c>
       <c r="B11">
-        <v>61334.070050483402</v>
+        <v>151304.63877445029</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>360565.27707896824</v>
+        <v>273580.07773809525</v>
       </c>
       <c r="B12">
-        <v>61306.133707201319</v>
+        <v>151151.22137871603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>356759.7807234127</v>
+        <v>273159.98264722223</v>
       </c>
       <c r="B13">
-        <v>61303.46081845247</v>
+        <v>151025.85616162923</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>352011.61565952376</v>
+        <v>272374.03662619047</v>
       </c>
       <c r="B14">
-        <v>61281.76872086474</v>
+        <v>150820.14271791102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>272321.49214126985</v>
+      </c>
+      <c r="B15">
+        <v>150817.86997148543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>271260.0452126984</v>
+      </c>
+      <c r="B16">
+        <v>150802.01547310821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>270609.05956349208</v>
+      </c>
+      <c r="B17">
+        <v>150770.36765832157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>270334.10064999998</v>
+      </c>
+      <c r="B18">
+        <v>150713.09096264327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>270165.73944166669</v>
+      </c>
+      <c r="B19">
+        <v>150712.0789702443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>270028.54516984127</v>
+      </c>
+      <c r="B20">
+        <v>150690.27397923282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>269265.96898333333</v>
+      </c>
+      <c r="B21">
+        <v>150606.27298236277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>267076.34619047621</v>
+      </c>
+      <c r="B22">
+        <v>150484.03241833631</v>
       </c>
     </row>
   </sheetData>
@@ -1427,124 +1939,188 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBF83AA-9C42-4826-AA21-D1D1A7568931}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>390474.93822777778</v>
+        <v>278353.88481230161</v>
       </c>
       <c r="B1">
-        <v>61652.658072102917</v>
+        <v>153432.95588647359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>389721.90550357138</v>
+        <v>277532.50921349204</v>
       </c>
       <c r="B2">
-        <v>61625.257750297576</v>
+        <v>152065.17524004306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>389684.06248134922</v>
+        <v>276563.82535555557</v>
       </c>
       <c r="B3">
-        <v>61575.8325812236</v>
+        <v>151835.92721689347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>387330.902797619</v>
+        <v>275696.50525595236</v>
       </c>
       <c r="B4">
-        <v>61571.515197111919</v>
+        <v>151782.30671161175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>386866.01374523807</v>
+        <v>275584.31405039685</v>
       </c>
       <c r="B5">
-        <v>61505.040434063041</v>
+        <v>151748.47452092331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>384033.2894238095</v>
+        <v>275520.82948293653</v>
       </c>
       <c r="B6">
-        <v>61486.40922710859</v>
+        <v>151726.72795537105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>381664.05474047619</v>
+        <v>275269.11548174603</v>
       </c>
       <c r="B7">
-        <v>61424.609705344468</v>
+        <v>151635.13920863273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>377675.75499484129</v>
+        <v>275152.55289682536</v>
       </c>
       <c r="B8">
-        <v>61390.686975914636</v>
+        <v>151587.67739593453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>375314.31564365083</v>
+        <v>275123.85744841269</v>
       </c>
       <c r="B9">
-        <v>61362.272659710936</v>
+        <v>151477.76384395093</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>365114.93293134915</v>
+        <v>274798.76090793649</v>
       </c>
       <c r="B10">
-        <v>61349.937475529812</v>
+        <v>151315.2223158463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>362466.46432658733</v>
+        <v>273915.41748571431</v>
       </c>
       <c r="B11">
-        <v>61334.070050483402</v>
+        <v>151304.63877445029</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>360565.27707896824</v>
+        <v>273580.07773809525</v>
       </c>
       <c r="B12">
-        <v>61306.133707201319</v>
+        <v>151151.22137871603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>356759.7807234127</v>
+        <v>273159.98264722223</v>
       </c>
       <c r="B13">
-        <v>61303.46081845247</v>
+        <v>151025.85616162923</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>352011.61565952376</v>
+        <v>272374.03662619047</v>
       </c>
       <c r="B14">
-        <v>61281.76872086474</v>
+        <v>150820.14271791102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>272321.49214126985</v>
+      </c>
+      <c r="B15">
+        <v>150817.86997148543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>271260.0452126984</v>
+      </c>
+      <c r="B16">
+        <v>150802.01547310821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>270609.05956349208</v>
+      </c>
+      <c r="B17">
+        <v>150770.36765832157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>270334.10064999998</v>
+      </c>
+      <c r="B18">
+        <v>150713.09096264327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>270165.73944166669</v>
+      </c>
+      <c r="B19">
+        <v>150712.0789702443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>270028.54516984127</v>
+      </c>
+      <c r="B20">
+        <v>150690.27397923282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>269265.96898333333</v>
+      </c>
+      <c r="B21">
+        <v>150606.27298236277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>267076.34619047621</v>
+      </c>
+      <c r="B22">
+        <v>150484.03241833631</v>
       </c>
     </row>
   </sheetData>
@@ -1555,124 +2131,188 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CA1887-3081-4974-828B-E55B641372E7}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>390474.93822777778</v>
+        <v>278353.88481230161</v>
       </c>
       <c r="B1">
-        <v>61652.658072102917</v>
+        <v>153432.95588647359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>389721.90550357138</v>
+        <v>277532.50921349204</v>
       </c>
       <c r="B2">
-        <v>61625.257750297576</v>
+        <v>152065.17524004306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>389684.06248134922</v>
+        <v>276563.82535555557</v>
       </c>
       <c r="B3">
-        <v>61575.8325812236</v>
+        <v>151835.92721689347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>387330.902797619</v>
+        <v>275696.50525595236</v>
       </c>
       <c r="B4">
-        <v>61571.515197111919</v>
+        <v>151782.30671161175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>386866.01374523807</v>
+        <v>275584.31405039685</v>
       </c>
       <c r="B5">
-        <v>61505.040434063041</v>
+        <v>151748.47452092331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>384033.2894238095</v>
+        <v>275520.82948293653</v>
       </c>
       <c r="B6">
-        <v>61486.40922710859</v>
+        <v>151726.72795537105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>381664.05474047619</v>
+        <v>275269.11548174603</v>
       </c>
       <c r="B7">
-        <v>61424.609705344468</v>
+        <v>151635.13920863273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>377675.75499484129</v>
+        <v>275152.55289682536</v>
       </c>
       <c r="B8">
-        <v>61390.686975914636</v>
+        <v>151587.67739593453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>375314.31564365083</v>
+        <v>275123.85744841269</v>
       </c>
       <c r="B9">
-        <v>61362.272659710936</v>
+        <v>151477.76384395093</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>365114.93293134915</v>
+        <v>274798.76090793649</v>
       </c>
       <c r="B10">
-        <v>61349.937475529812</v>
+        <v>151315.2223158463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>362466.46432658733</v>
+        <v>273915.41748571431</v>
       </c>
       <c r="B11">
-        <v>61334.070050483402</v>
+        <v>151304.63877445029</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>360565.27707896824</v>
+        <v>273580.07773809525</v>
       </c>
       <c r="B12">
-        <v>61306.133707201319</v>
+        <v>151151.22137871603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>356759.7807234127</v>
+        <v>273159.98264722223</v>
       </c>
       <c r="B13">
-        <v>61303.46081845247</v>
+        <v>151025.85616162923</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>352011.61565952376</v>
+        <v>272374.03662619047</v>
       </c>
       <c r="B14">
-        <v>61281.76872086474</v>
+        <v>150820.14271791102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>272321.49214126985</v>
+      </c>
+      <c r="B15">
+        <v>150817.86997148543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>271260.0452126984</v>
+      </c>
+      <c r="B16">
+        <v>150802.01547310821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>270609.05956349208</v>
+      </c>
+      <c r="B17">
+        <v>150770.36765832157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>270334.10064999998</v>
+      </c>
+      <c r="B18">
+        <v>150713.09096264327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>270165.73944166669</v>
+      </c>
+      <c r="B19">
+        <v>150712.0789702443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>270028.54516984127</v>
+      </c>
+      <c r="B20">
+        <v>150690.27397923282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>269265.96898333333</v>
+      </c>
+      <c r="B21">
+        <v>150606.27298236277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>267076.34619047621</v>
+      </c>
+      <c r="B22">
+        <v>150484.03241833631</v>
       </c>
     </row>
   </sheetData>

--- a/MOPSO_results/Pareto_results.xlsx
+++ b/MOPSO_results/Pareto_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MOPSO_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8B7FD7-67D5-42D3-917F-51170448B0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2B9187-FF20-452B-BCA2-34481D07F75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{DA06BE81-697E-43A2-B574-9355AF2B6C64}"/>
+    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{3F463BAF-9A66-4732-ADA4-A45CEAF19E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,6 +104,1968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>26886.78454866667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26533.970956515874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26452.777576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26349.710899857146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25989.580200896824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25385.539801190476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23957.951733055557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23742.288712253969</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23164.858671888884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22838.733436095237</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22680.398143444443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22419.374545880954</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22168.62663223016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21693.253425706353</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21067.810766563496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20478.588417801591</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20075.632209460317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>42631.232569997112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42582.290506999947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42579.338505179738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42557.815481252241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42479.235197997863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42436.832222303754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42429.248126643302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42415.93534136255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42413.090177951111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42411.941897895711</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42410.439595124648</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42403.298254232912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42400.562565724722</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42397.089601065753</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42395.897187792951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42388.371297421254</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42368.982290291955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CED7-4CE1-A132-C9511A3F3DE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689759439"/>
+        <c:axId val="695317135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689759439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695317135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="695317135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689759439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>26886.78454866667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26533.970956515874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26452.777576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26349.710899857146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25989.580200896824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25385.539801190476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23957.951733055557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23742.288712253969</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23164.858671888884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22838.733436095237</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22680.398143444443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22419.374545880954</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22168.62663223016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21693.253425706353</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21067.810766563496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20478.588417801591</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20075.632209460317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>42631.232569997112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42582.290506999947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42579.338505179738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42557.815481252241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42479.235197997863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42436.832222303754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42429.248126643302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42415.93534136255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42413.090177951111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42411.941897895711</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42410.439595124648</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42403.298254232912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42400.562565724722</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42397.089601065753</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42395.897187792951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42388.371297421254</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42368.982290291955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75AC-499B-943B-4C7C458CC379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="690594655"/>
+        <c:axId val="698781631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="690594655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="698781631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="698781631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690594655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0094592-6EFE-0C54-8F43-9BCF45D52785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6CD60D-0BFF-3A74-8B1C-48A2C23E3314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,381 +2364,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A45B30-8A78-4AC2-ABFE-A79390D92158}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE233D-A269-42BF-B6CA-BF7F03B8F1F0}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>278353.88481230161</v>
+        <v>26886.78454866667</v>
       </c>
       <c r="B1">
-        <v>153432.95588647359</v>
+        <v>42631.232569997112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>277532.50921349204</v>
+        <v>26533.970956515874</v>
       </c>
       <c r="B2">
-        <v>152065.17524004306</v>
+        <v>42582.290506999947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>276563.82535555557</v>
+        <v>26452.777576</v>
       </c>
       <c r="B3">
-        <v>151835.92721689347</v>
+        <v>42579.338505179738</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>275696.50525595236</v>
+        <v>26349.710899857146</v>
       </c>
       <c r="B4">
-        <v>151782.30671161175</v>
+        <v>42557.815481252241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>275584.31405039685</v>
+        <v>25989.580200896824</v>
       </c>
       <c r="B5">
-        <v>151748.47452092331</v>
+        <v>42479.235197997863</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>275520.82948293653</v>
+        <v>25385.539801190476</v>
       </c>
       <c r="B6">
-        <v>151726.72795537105</v>
+        <v>42436.832222303754</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>275269.11548174603</v>
+        <v>23957.951733055557</v>
       </c>
       <c r="B7">
-        <v>151635.13920863273</v>
+        <v>42429.248126643302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>275152.55289682536</v>
+        <v>23742.288712253969</v>
       </c>
       <c r="B8">
-        <v>151587.67739593453</v>
+        <v>42415.93534136255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>275123.85744841269</v>
+        <v>23164.858671888884</v>
       </c>
       <c r="B9">
-        <v>151477.76384395093</v>
+        <v>42413.090177951111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>274798.76090793649</v>
+        <v>22838.733436095237</v>
       </c>
       <c r="B10">
-        <v>151315.2223158463</v>
+        <v>42411.941897895711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>273915.41748571431</v>
+        <v>22680.398143444443</v>
       </c>
       <c r="B11">
-        <v>151304.63877445029</v>
+        <v>42410.439595124648</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>273580.07773809525</v>
+        <v>22419.374545880954</v>
       </c>
       <c r="B12">
-        <v>151151.22137871603</v>
+        <v>42403.298254232912</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273159.98264722223</v>
+        <v>22168.62663223016</v>
       </c>
       <c r="B13">
-        <v>151025.85616162923</v>
+        <v>42400.562565724722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>272374.03662619047</v>
+        <v>21693.253425706353</v>
       </c>
       <c r="B14">
-        <v>150820.14271791102</v>
+        <v>42397.089601065753</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>272321.49214126985</v>
+        <v>21067.810766563496</v>
       </c>
       <c r="B15">
-        <v>150817.86997148543</v>
+        <v>42395.897187792951</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>271260.0452126984</v>
+        <v>20478.588417801591</v>
       </c>
       <c r="B16">
-        <v>150802.01547310821</v>
+        <v>42388.371297421254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>270609.05956349208</v>
+        <v>20075.632209460317</v>
       </c>
       <c r="B17">
-        <v>150770.36765832157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>270334.10064999998</v>
-      </c>
-      <c r="B18">
-        <v>150713.09096264327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>270165.73944166669</v>
-      </c>
-      <c r="B19">
-        <v>150712.0789702443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>270028.54516984127</v>
-      </c>
-      <c r="B20">
-        <v>150690.27397923282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269265.96898333333</v>
-      </c>
-      <c r="B21">
-        <v>150606.27298236277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>267076.34619047621</v>
-      </c>
-      <c r="B22">
-        <v>150484.03241833631</v>
+        <v>42368.982290291955</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8511AB95-20E5-4A85-9F70-D35BE292865D}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A175D-55E9-448D-9228-FA4D7F188291}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>278353.88481230161</v>
+        <v>26886.78454866667</v>
       </c>
       <c r="B1">
-        <v>153432.95588647359</v>
+        <v>42631.232569997112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>277532.50921349204</v>
+        <v>26533.970956515874</v>
       </c>
       <c r="B2">
-        <v>152065.17524004306</v>
+        <v>42582.290506999947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>276563.82535555557</v>
+        <v>26452.777576</v>
       </c>
       <c r="B3">
-        <v>151835.92721689347</v>
+        <v>42579.338505179738</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>275696.50525595236</v>
+        <v>26349.710899857146</v>
       </c>
       <c r="B4">
-        <v>151782.30671161175</v>
+        <v>42557.815481252241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>275584.31405039685</v>
+        <v>25989.580200896824</v>
       </c>
       <c r="B5">
-        <v>151748.47452092331</v>
+        <v>42479.235197997863</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>275520.82948293653</v>
+        <v>25385.539801190476</v>
       </c>
       <c r="B6">
-        <v>151726.72795537105</v>
+        <v>42436.832222303754</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>275269.11548174603</v>
+        <v>23957.951733055557</v>
       </c>
       <c r="B7">
-        <v>151635.13920863273</v>
+        <v>42429.248126643302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>275152.55289682536</v>
+        <v>23742.288712253969</v>
       </c>
       <c r="B8">
-        <v>151587.67739593453</v>
+        <v>42415.93534136255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>275123.85744841269</v>
+        <v>23164.858671888884</v>
       </c>
       <c r="B9">
-        <v>151477.76384395093</v>
+        <v>42413.090177951111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>274798.76090793649</v>
+        <v>22838.733436095237</v>
       </c>
       <c r="B10">
-        <v>151315.2223158463</v>
+        <v>42411.941897895711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>273915.41748571431</v>
+        <v>22680.398143444443</v>
       </c>
       <c r="B11">
-        <v>151304.63877445029</v>
+        <v>42410.439595124648</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>273580.07773809525</v>
+        <v>22419.374545880954</v>
       </c>
       <c r="B12">
-        <v>151151.22137871603</v>
+        <v>42403.298254232912</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273159.98264722223</v>
+        <v>22168.62663223016</v>
       </c>
       <c r="B13">
-        <v>151025.85616162923</v>
+        <v>42400.562565724722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>272374.03662619047</v>
+        <v>21693.253425706353</v>
       </c>
       <c r="B14">
-        <v>150820.14271791102</v>
+        <v>42397.089601065753</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>272321.49214126985</v>
+        <v>21067.810766563496</v>
       </c>
       <c r="B15">
-        <v>150817.86997148543</v>
+        <v>42395.897187792951</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>271260.0452126984</v>
+        <v>20478.588417801591</v>
       </c>
       <c r="B16">
-        <v>150802.01547310821</v>
+        <v>42388.371297421254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>270609.05956349208</v>
+        <v>20075.632209460317</v>
       </c>
       <c r="B17">
-        <v>150770.36765832157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>270334.10064999998</v>
-      </c>
-      <c r="B18">
-        <v>150713.09096264327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>270165.73944166669</v>
-      </c>
-      <c r="B19">
-        <v>150712.0789702443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>270028.54516984127</v>
-      </c>
-      <c r="B20">
-        <v>150690.27397923282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269265.96898333333</v>
-      </c>
-      <c r="B21">
-        <v>150606.27298236277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>267076.34619047621</v>
-      </c>
-      <c r="B22">
-        <v>150484.03241833631</v>
+        <v>42368.982290291955</v>
       </c>
     </row>
   </sheetData>
@@ -786,381 +2669,302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024A5078-8C58-4D90-8C2E-7D46950935A2}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D066A504-32B6-4B20-A4C8-76453C288F92}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>278353.88481230161</v>
+        <v>26886.78454866667</v>
       </c>
       <c r="B1">
-        <v>153432.95588647359</v>
+        <v>42631.232569997112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>277532.50921349204</v>
+        <v>26533.970956515874</v>
       </c>
       <c r="B2">
-        <v>152065.17524004306</v>
+        <v>42582.290506999947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>276563.82535555557</v>
+        <v>26452.777576</v>
       </c>
       <c r="B3">
-        <v>151835.92721689347</v>
+        <v>42579.338505179738</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>275696.50525595236</v>
+        <v>26349.710899857146</v>
       </c>
       <c r="B4">
-        <v>151782.30671161175</v>
+        <v>42557.815481252241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>275584.31405039685</v>
+        <v>25989.580200896824</v>
       </c>
       <c r="B5">
-        <v>151748.47452092331</v>
+        <v>42479.235197997863</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>275520.82948293653</v>
+        <v>25385.539801190476</v>
       </c>
       <c r="B6">
-        <v>151726.72795537105</v>
+        <v>42436.832222303754</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>275269.11548174603</v>
+        <v>23957.951733055557</v>
       </c>
       <c r="B7">
-        <v>151635.13920863273</v>
+        <v>42429.248126643302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>275152.55289682536</v>
+        <v>23742.288712253969</v>
       </c>
       <c r="B8">
-        <v>151587.67739593453</v>
+        <v>42415.93534136255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>275123.85744841269</v>
+        <v>23164.858671888884</v>
       </c>
       <c r="B9">
-        <v>151477.76384395093</v>
+        <v>42413.090177951111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>274798.76090793649</v>
+        <v>22838.733436095237</v>
       </c>
       <c r="B10">
-        <v>151315.2223158463</v>
+        <v>42411.941897895711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>273915.41748571431</v>
+        <v>22680.398143444443</v>
       </c>
       <c r="B11">
-        <v>151304.63877445029</v>
+        <v>42410.439595124648</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>273580.07773809525</v>
+        <v>22419.374545880954</v>
       </c>
       <c r="B12">
-        <v>151151.22137871603</v>
+        <v>42403.298254232912</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273159.98264722223</v>
+        <v>22168.62663223016</v>
       </c>
       <c r="B13">
-        <v>151025.85616162923</v>
+        <v>42400.562565724722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>272374.03662619047</v>
+        <v>21693.253425706353</v>
       </c>
       <c r="B14">
-        <v>150820.14271791102</v>
+        <v>42397.089601065753</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>272321.49214126985</v>
+        <v>21067.810766563496</v>
       </c>
       <c r="B15">
-        <v>150817.86997148543</v>
+        <v>42395.897187792951</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>271260.0452126984</v>
+        <v>20478.588417801591</v>
       </c>
       <c r="B16">
-        <v>150802.01547310821</v>
+        <v>42388.371297421254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>270609.05956349208</v>
+        <v>20075.632209460317</v>
       </c>
       <c r="B17">
-        <v>150770.36765832157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>270334.10064999998</v>
-      </c>
-      <c r="B18">
-        <v>150713.09096264327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>270165.73944166669</v>
-      </c>
-      <c r="B19">
-        <v>150712.0789702443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>270028.54516984127</v>
-      </c>
-      <c r="B20">
-        <v>150690.27397923282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269265.96898333333</v>
-      </c>
-      <c r="B21">
-        <v>150606.27298236277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>267076.34619047621</v>
-      </c>
-      <c r="B22">
-        <v>150484.03241833631</v>
+        <v>42368.982290291955</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E326D77F-5AD3-40D1-8C34-20245EBFC306}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89121086-F502-48A2-8D94-12E0974B457F}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>278353.88481230161</v>
+        <v>26886.78454866667</v>
       </c>
       <c r="B1">
-        <v>153432.95588647359</v>
+        <v>42631.232569997112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>277532.50921349204</v>
+        <v>26533.970956515874</v>
       </c>
       <c r="B2">
-        <v>152065.17524004306</v>
+        <v>42582.290506999947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>276563.82535555557</v>
+        <v>26452.777576</v>
       </c>
       <c r="B3">
-        <v>151835.92721689347</v>
+        <v>42579.338505179738</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>275696.50525595236</v>
+        <v>26349.710899857146</v>
       </c>
       <c r="B4">
-        <v>151782.30671161175</v>
+        <v>42557.815481252241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>275584.31405039685</v>
+        <v>25989.580200896824</v>
       </c>
       <c r="B5">
-        <v>151748.47452092331</v>
+        <v>42479.235197997863</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>275520.82948293653</v>
+        <v>25385.539801190476</v>
       </c>
       <c r="B6">
-        <v>151726.72795537105</v>
+        <v>42436.832222303754</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>275269.11548174603</v>
+        <v>23957.951733055557</v>
       </c>
       <c r="B7">
-        <v>151635.13920863273</v>
+        <v>42429.248126643302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>275152.55289682536</v>
+        <v>23742.288712253969</v>
       </c>
       <c r="B8">
-        <v>151587.67739593453</v>
+        <v>42415.93534136255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>275123.85744841269</v>
+        <v>23164.858671888884</v>
       </c>
       <c r="B9">
-        <v>151477.76384395093</v>
+        <v>42413.090177951111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>274798.76090793649</v>
+        <v>22838.733436095237</v>
       </c>
       <c r="B10">
-        <v>151315.2223158463</v>
+        <v>42411.941897895711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>273915.41748571431</v>
+        <v>22680.398143444443</v>
       </c>
       <c r="B11">
-        <v>151304.63877445029</v>
+        <v>42410.439595124648</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>273580.07773809525</v>
+        <v>22419.374545880954</v>
       </c>
       <c r="B12">
-        <v>151151.22137871603</v>
+        <v>42403.298254232912</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273159.98264722223</v>
+        <v>22168.62663223016</v>
       </c>
       <c r="B13">
-        <v>151025.85616162923</v>
+        <v>42400.562565724722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>272374.03662619047</v>
+        <v>21693.253425706353</v>
       </c>
       <c r="B14">
-        <v>150820.14271791102</v>
+        <v>42397.089601065753</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>272321.49214126985</v>
+        <v>21067.810766563496</v>
       </c>
       <c r="B15">
-        <v>150817.86997148543</v>
+        <v>42395.897187792951</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>271260.0452126984</v>
+        <v>20478.588417801591</v>
       </c>
       <c r="B16">
-        <v>150802.01547310821</v>
+        <v>42388.371297421254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>270609.05956349208</v>
+        <v>20075.632209460317</v>
       </c>
       <c r="B17">
-        <v>150770.36765832157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>270334.10064999998</v>
-      </c>
-      <c r="B18">
-        <v>150713.09096264327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>270165.73944166669</v>
-      </c>
-      <c r="B19">
-        <v>150712.0789702443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>270028.54516984127</v>
-      </c>
-      <c r="B20">
-        <v>150690.27397923282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269265.96898333333</v>
-      </c>
-      <c r="B21">
-        <v>150606.27298236277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>267076.34619047621</v>
-      </c>
-      <c r="B22">
-        <v>150484.03241833631</v>
+        <v>42368.982290291955</v>
       </c>
     </row>
   </sheetData>
@@ -1170,189 +2974,149 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6D7D8D-D9C1-4846-872B-EDB1FC85E4ED}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1005EF2B-B3C1-461F-BE25-28F324153E16}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>278353.88481230161</v>
+        <v>26886.78454866667</v>
       </c>
       <c r="B1">
-        <v>153432.95588647359</v>
+        <v>42631.232569997112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>277532.50921349204</v>
+        <v>26533.970956515874</v>
       </c>
       <c r="B2">
-        <v>152065.17524004306</v>
+        <v>42582.290506999947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>276563.82535555557</v>
+        <v>26452.777576</v>
       </c>
       <c r="B3">
-        <v>151835.92721689347</v>
+        <v>42579.338505179738</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>275696.50525595236</v>
+        <v>26349.710899857146</v>
       </c>
       <c r="B4">
-        <v>151782.30671161175</v>
+        <v>42557.815481252241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>275584.31405039685</v>
+        <v>25989.580200896824</v>
       </c>
       <c r="B5">
-        <v>151748.47452092331</v>
+        <v>42479.235197997863</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>275520.82948293653</v>
+        <v>25385.539801190476</v>
       </c>
       <c r="B6">
-        <v>151726.72795537105</v>
+        <v>42436.832222303754</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>275269.11548174603</v>
+        <v>23957.951733055557</v>
       </c>
       <c r="B7">
-        <v>151635.13920863273</v>
+        <v>42429.248126643302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>275152.55289682536</v>
+        <v>23742.288712253969</v>
       </c>
       <c r="B8">
-        <v>151587.67739593453</v>
+        <v>42415.93534136255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>275123.85744841269</v>
+        <v>23164.858671888884</v>
       </c>
       <c r="B9">
-        <v>151477.76384395093</v>
+        <v>42413.090177951111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>274798.76090793649</v>
+        <v>22838.733436095237</v>
       </c>
       <c r="B10">
-        <v>151315.2223158463</v>
+        <v>42411.941897895711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>273915.41748571431</v>
+        <v>22680.398143444443</v>
       </c>
       <c r="B11">
-        <v>151304.63877445029</v>
+        <v>42410.439595124648</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>273580.07773809525</v>
+        <v>22419.374545880954</v>
       </c>
       <c r="B12">
-        <v>151151.22137871603</v>
+        <v>42403.298254232912</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273159.98264722223</v>
+        <v>22168.62663223016</v>
       </c>
       <c r="B13">
-        <v>151025.85616162923</v>
+        <v>42400.562565724722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>272374.03662619047</v>
+        <v>21693.253425706353</v>
       </c>
       <c r="B14">
-        <v>150820.14271791102</v>
+        <v>42397.089601065753</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>272321.49214126985</v>
+        <v>21067.810766563496</v>
       </c>
       <c r="B15">
-        <v>150817.86997148543</v>
+        <v>42395.897187792951</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>271260.0452126984</v>
+        <v>20478.588417801591</v>
       </c>
       <c r="B16">
-        <v>150802.01547310821</v>
+        <v>42388.371297421254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>270609.05956349208</v>
+        <v>20075.632209460317</v>
       </c>
       <c r="B17">
-        <v>150770.36765832157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>270334.10064999998</v>
-      </c>
-      <c r="B18">
-        <v>150713.09096264327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>270165.73944166669</v>
-      </c>
-      <c r="B19">
-        <v>150712.0789702443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>270028.54516984127</v>
-      </c>
-      <c r="B20">
-        <v>150690.27397923282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269265.96898333333</v>
-      </c>
-      <c r="B21">
-        <v>150606.27298236277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>267076.34619047621</v>
-      </c>
-      <c r="B22">
-        <v>150484.03241833631</v>
+        <v>42368.982290291955</v>
       </c>
     </row>
   </sheetData>
@@ -1362,189 +3126,149 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0884A1-79AD-411B-838A-B111B71757A2}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9634E177-F8CB-4AC7-8542-8BCF0475B2D3}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>278353.88481230161</v>
+        <v>26886.78454866667</v>
       </c>
       <c r="B1">
-        <v>153432.95588647359</v>
+        <v>42631.232569997112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>277532.50921349204</v>
+        <v>26533.970956515874</v>
       </c>
       <c r="B2">
-        <v>152065.17524004306</v>
+        <v>42582.290506999947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>276563.82535555557</v>
+        <v>26452.777576</v>
       </c>
       <c r="B3">
-        <v>151835.92721689347</v>
+        <v>42579.338505179738</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>275696.50525595236</v>
+        <v>26349.710899857146</v>
       </c>
       <c r="B4">
-        <v>151782.30671161175</v>
+        <v>42557.815481252241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>275584.31405039685</v>
+        <v>25989.580200896824</v>
       </c>
       <c r="B5">
-        <v>151748.47452092331</v>
+        <v>42479.235197997863</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>275520.82948293653</v>
+        <v>25385.539801190476</v>
       </c>
       <c r="B6">
-        <v>151726.72795537105</v>
+        <v>42436.832222303754</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>275269.11548174603</v>
+        <v>23957.951733055557</v>
       </c>
       <c r="B7">
-        <v>151635.13920863273</v>
+        <v>42429.248126643302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>275152.55289682536</v>
+        <v>23742.288712253969</v>
       </c>
       <c r="B8">
-        <v>151587.67739593453</v>
+        <v>42415.93534136255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>275123.85744841269</v>
+        <v>23164.858671888884</v>
       </c>
       <c r="B9">
-        <v>151477.76384395093</v>
+        <v>42413.090177951111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>274798.76090793649</v>
+        <v>22838.733436095237</v>
       </c>
       <c r="B10">
-        <v>151315.2223158463</v>
+        <v>42411.941897895711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>273915.41748571431</v>
+        <v>22680.398143444443</v>
       </c>
       <c r="B11">
-        <v>151304.63877445029</v>
+        <v>42410.439595124648</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>273580.07773809525</v>
+        <v>22419.374545880954</v>
       </c>
       <c r="B12">
-        <v>151151.22137871603</v>
+        <v>42403.298254232912</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273159.98264722223</v>
+        <v>22168.62663223016</v>
       </c>
       <c r="B13">
-        <v>151025.85616162923</v>
+        <v>42400.562565724722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>272374.03662619047</v>
+        <v>21693.253425706353</v>
       </c>
       <c r="B14">
-        <v>150820.14271791102</v>
+        <v>42397.089601065753</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>272321.49214126985</v>
+        <v>21067.810766563496</v>
       </c>
       <c r="B15">
-        <v>150817.86997148543</v>
+        <v>42395.897187792951</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>271260.0452126984</v>
+        <v>20478.588417801591</v>
       </c>
       <c r="B16">
-        <v>150802.01547310821</v>
+        <v>42388.371297421254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>270609.05956349208</v>
+        <v>20075.632209460317</v>
       </c>
       <c r="B17">
-        <v>150770.36765832157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>270334.10064999998</v>
-      </c>
-      <c r="B18">
-        <v>150713.09096264327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>270165.73944166669</v>
-      </c>
-      <c r="B19">
-        <v>150712.0789702443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>270028.54516984127</v>
-      </c>
-      <c r="B20">
-        <v>150690.27397923282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269265.96898333333</v>
-      </c>
-      <c r="B21">
-        <v>150606.27298236277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>267076.34619047621</v>
-      </c>
-      <c r="B22">
-        <v>150484.03241833631</v>
+        <v>42368.982290291955</v>
       </c>
     </row>
   </sheetData>
@@ -1554,189 +3278,149 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E7393E-B3F8-4C60-AB58-44A469891860}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EB88CD-AAF9-447B-81FE-4D2CA4868602}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>278353.88481230161</v>
+        <v>26886.78454866667</v>
       </c>
       <c r="B1">
-        <v>153432.95588647359</v>
+        <v>42631.232569997112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>277532.50921349204</v>
+        <v>26533.970956515874</v>
       </c>
       <c r="B2">
-        <v>152065.17524004306</v>
+        <v>42582.290506999947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>276563.82535555557</v>
+        <v>26452.777576</v>
       </c>
       <c r="B3">
-        <v>151835.92721689347</v>
+        <v>42579.338505179738</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>275696.50525595236</v>
+        <v>26349.710899857146</v>
       </c>
       <c r="B4">
-        <v>151782.30671161175</v>
+        <v>42557.815481252241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>275584.31405039685</v>
+        <v>25989.580200896824</v>
       </c>
       <c r="B5">
-        <v>151748.47452092331</v>
+        <v>42479.235197997863</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>275520.82948293653</v>
+        <v>25385.539801190476</v>
       </c>
       <c r="B6">
-        <v>151726.72795537105</v>
+        <v>42436.832222303754</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>275269.11548174603</v>
+        <v>23957.951733055557</v>
       </c>
       <c r="B7">
-        <v>151635.13920863273</v>
+        <v>42429.248126643302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>275152.55289682536</v>
+        <v>23742.288712253969</v>
       </c>
       <c r="B8">
-        <v>151587.67739593453</v>
+        <v>42415.93534136255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>275123.85744841269</v>
+        <v>23164.858671888884</v>
       </c>
       <c r="B9">
-        <v>151477.76384395093</v>
+        <v>42413.090177951111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>274798.76090793649</v>
+        <v>22838.733436095237</v>
       </c>
       <c r="B10">
-        <v>151315.2223158463</v>
+        <v>42411.941897895711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>273915.41748571431</v>
+        <v>22680.398143444443</v>
       </c>
       <c r="B11">
-        <v>151304.63877445029</v>
+        <v>42410.439595124648</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>273580.07773809525</v>
+        <v>22419.374545880954</v>
       </c>
       <c r="B12">
-        <v>151151.22137871603</v>
+        <v>42403.298254232912</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273159.98264722223</v>
+        <v>22168.62663223016</v>
       </c>
       <c r="B13">
-        <v>151025.85616162923</v>
+        <v>42400.562565724722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>272374.03662619047</v>
+        <v>21693.253425706353</v>
       </c>
       <c r="B14">
-        <v>150820.14271791102</v>
+        <v>42397.089601065753</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>272321.49214126985</v>
+        <v>21067.810766563496</v>
       </c>
       <c r="B15">
-        <v>150817.86997148543</v>
+        <v>42395.897187792951</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>271260.0452126984</v>
+        <v>20478.588417801591</v>
       </c>
       <c r="B16">
-        <v>150802.01547310821</v>
+        <v>42388.371297421254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>270609.05956349208</v>
+        <v>20075.632209460317</v>
       </c>
       <c r="B17">
-        <v>150770.36765832157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>270334.10064999998</v>
-      </c>
-      <c r="B18">
-        <v>150713.09096264327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>270165.73944166669</v>
-      </c>
-      <c r="B19">
-        <v>150712.0789702443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>270028.54516984127</v>
-      </c>
-      <c r="B20">
-        <v>150690.27397923282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269265.96898333333</v>
-      </c>
-      <c r="B21">
-        <v>150606.27298236277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>267076.34619047621</v>
-      </c>
-      <c r="B22">
-        <v>150484.03241833631</v>
+        <v>42368.982290291955</v>
       </c>
     </row>
   </sheetData>
@@ -1746,189 +3430,149 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647D826C-D9B7-4C4D-B552-46BDA88FE7F7}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8773EE-528C-4ABA-8DCF-CD4514E31524}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>278353.88481230161</v>
+        <v>26886.78454866667</v>
       </c>
       <c r="B1">
-        <v>153432.95588647359</v>
+        <v>42631.232569997112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>277532.50921349204</v>
+        <v>26533.970956515874</v>
       </c>
       <c r="B2">
-        <v>152065.17524004306</v>
+        <v>42582.290506999947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>276563.82535555557</v>
+        <v>26452.777576</v>
       </c>
       <c r="B3">
-        <v>151835.92721689347</v>
+        <v>42579.338505179738</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>275696.50525595236</v>
+        <v>26349.710899857146</v>
       </c>
       <c r="B4">
-        <v>151782.30671161175</v>
+        <v>42557.815481252241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>275584.31405039685</v>
+        <v>25989.580200896824</v>
       </c>
       <c r="B5">
-        <v>151748.47452092331</v>
+        <v>42479.235197997863</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>275520.82948293653</v>
+        <v>25385.539801190476</v>
       </c>
       <c r="B6">
-        <v>151726.72795537105</v>
+        <v>42436.832222303754</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>275269.11548174603</v>
+        <v>23957.951733055557</v>
       </c>
       <c r="B7">
-        <v>151635.13920863273</v>
+        <v>42429.248126643302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>275152.55289682536</v>
+        <v>23742.288712253969</v>
       </c>
       <c r="B8">
-        <v>151587.67739593453</v>
+        <v>42415.93534136255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>275123.85744841269</v>
+        <v>23164.858671888884</v>
       </c>
       <c r="B9">
-        <v>151477.76384395093</v>
+        <v>42413.090177951111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>274798.76090793649</v>
+        <v>22838.733436095237</v>
       </c>
       <c r="B10">
-        <v>151315.2223158463</v>
+        <v>42411.941897895711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>273915.41748571431</v>
+        <v>22680.398143444443</v>
       </c>
       <c r="B11">
-        <v>151304.63877445029</v>
+        <v>42410.439595124648</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>273580.07773809525</v>
+        <v>22419.374545880954</v>
       </c>
       <c r="B12">
-        <v>151151.22137871603</v>
+        <v>42403.298254232912</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273159.98264722223</v>
+        <v>22168.62663223016</v>
       </c>
       <c r="B13">
-        <v>151025.85616162923</v>
+        <v>42400.562565724722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>272374.03662619047</v>
+        <v>21693.253425706353</v>
       </c>
       <c r="B14">
-        <v>150820.14271791102</v>
+        <v>42397.089601065753</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>272321.49214126985</v>
+        <v>21067.810766563496</v>
       </c>
       <c r="B15">
-        <v>150817.86997148543</v>
+        <v>42395.897187792951</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>271260.0452126984</v>
+        <v>20478.588417801591</v>
       </c>
       <c r="B16">
-        <v>150802.01547310821</v>
+        <v>42388.371297421254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>270609.05956349208</v>
+        <v>20075.632209460317</v>
       </c>
       <c r="B17">
-        <v>150770.36765832157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>270334.10064999998</v>
-      </c>
-      <c r="B18">
-        <v>150713.09096264327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>270165.73944166669</v>
-      </c>
-      <c r="B19">
-        <v>150712.0789702443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>270028.54516984127</v>
-      </c>
-      <c r="B20">
-        <v>150690.27397923282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269265.96898333333</v>
-      </c>
-      <c r="B21">
-        <v>150606.27298236277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>267076.34619047621</v>
-      </c>
-      <c r="B22">
-        <v>150484.03241833631</v>
+        <v>42368.982290291955</v>
       </c>
     </row>
   </sheetData>
@@ -1938,189 +3582,149 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBF83AA-9C42-4826-AA21-D1D1A7568931}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0145E0-79AF-4C47-A17B-A0BB01383669}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>278353.88481230161</v>
+        <v>26886.78454866667</v>
       </c>
       <c r="B1">
-        <v>153432.95588647359</v>
+        <v>42631.232569997112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>277532.50921349204</v>
+        <v>26533.970956515874</v>
       </c>
       <c r="B2">
-        <v>152065.17524004306</v>
+        <v>42582.290506999947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>276563.82535555557</v>
+        <v>26452.777576</v>
       </c>
       <c r="B3">
-        <v>151835.92721689347</v>
+        <v>42579.338505179738</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>275696.50525595236</v>
+        <v>26349.710899857146</v>
       </c>
       <c r="B4">
-        <v>151782.30671161175</v>
+        <v>42557.815481252241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>275584.31405039685</v>
+        <v>25989.580200896824</v>
       </c>
       <c r="B5">
-        <v>151748.47452092331</v>
+        <v>42479.235197997863</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>275520.82948293653</v>
+        <v>25385.539801190476</v>
       </c>
       <c r="B6">
-        <v>151726.72795537105</v>
+        <v>42436.832222303754</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>275269.11548174603</v>
+        <v>23957.951733055557</v>
       </c>
       <c r="B7">
-        <v>151635.13920863273</v>
+        <v>42429.248126643302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>275152.55289682536</v>
+        <v>23742.288712253969</v>
       </c>
       <c r="B8">
-        <v>151587.67739593453</v>
+        <v>42415.93534136255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>275123.85744841269</v>
+        <v>23164.858671888884</v>
       </c>
       <c r="B9">
-        <v>151477.76384395093</v>
+        <v>42413.090177951111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>274798.76090793649</v>
+        <v>22838.733436095237</v>
       </c>
       <c r="B10">
-        <v>151315.2223158463</v>
+        <v>42411.941897895711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>273915.41748571431</v>
+        <v>22680.398143444443</v>
       </c>
       <c r="B11">
-        <v>151304.63877445029</v>
+        <v>42410.439595124648</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>273580.07773809525</v>
+        <v>22419.374545880954</v>
       </c>
       <c r="B12">
-        <v>151151.22137871603</v>
+        <v>42403.298254232912</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273159.98264722223</v>
+        <v>22168.62663223016</v>
       </c>
       <c r="B13">
-        <v>151025.85616162923</v>
+        <v>42400.562565724722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>272374.03662619047</v>
+        <v>21693.253425706353</v>
       </c>
       <c r="B14">
-        <v>150820.14271791102</v>
+        <v>42397.089601065753</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>272321.49214126985</v>
+        <v>21067.810766563496</v>
       </c>
       <c r="B15">
-        <v>150817.86997148543</v>
+        <v>42395.897187792951</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>271260.0452126984</v>
+        <v>20478.588417801591</v>
       </c>
       <c r="B16">
-        <v>150802.01547310821</v>
+        <v>42388.371297421254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>270609.05956349208</v>
+        <v>20075.632209460317</v>
       </c>
       <c r="B17">
-        <v>150770.36765832157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>270334.10064999998</v>
-      </c>
-      <c r="B18">
-        <v>150713.09096264327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>270165.73944166669</v>
-      </c>
-      <c r="B19">
-        <v>150712.0789702443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>270028.54516984127</v>
-      </c>
-      <c r="B20">
-        <v>150690.27397923282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269265.96898333333</v>
-      </c>
-      <c r="B21">
-        <v>150606.27298236277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>267076.34619047621</v>
-      </c>
-      <c r="B22">
-        <v>150484.03241833631</v>
+        <v>42368.982290291955</v>
       </c>
     </row>
   </sheetData>
@@ -2130,189 +3734,149 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CA1887-3081-4974-828B-E55B641372E7}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8517C1BC-7A55-40F8-816F-5A1220C12462}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>278353.88481230161</v>
+        <v>26886.78454866667</v>
       </c>
       <c r="B1">
-        <v>153432.95588647359</v>
+        <v>42631.232569997112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>277532.50921349204</v>
+        <v>26533.970956515874</v>
       </c>
       <c r="B2">
-        <v>152065.17524004306</v>
+        <v>42582.290506999947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>276563.82535555557</v>
+        <v>26452.777576</v>
       </c>
       <c r="B3">
-        <v>151835.92721689347</v>
+        <v>42579.338505179738</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>275696.50525595236</v>
+        <v>26349.710899857146</v>
       </c>
       <c r="B4">
-        <v>151782.30671161175</v>
+        <v>42557.815481252241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>275584.31405039685</v>
+        <v>25989.580200896824</v>
       </c>
       <c r="B5">
-        <v>151748.47452092331</v>
+        <v>42479.235197997863</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>275520.82948293653</v>
+        <v>25385.539801190476</v>
       </c>
       <c r="B6">
-        <v>151726.72795537105</v>
+        <v>42436.832222303754</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>275269.11548174603</v>
+        <v>23957.951733055557</v>
       </c>
       <c r="B7">
-        <v>151635.13920863273</v>
+        <v>42429.248126643302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>275152.55289682536</v>
+        <v>23742.288712253969</v>
       </c>
       <c r="B8">
-        <v>151587.67739593453</v>
+        <v>42415.93534136255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>275123.85744841269</v>
+        <v>23164.858671888884</v>
       </c>
       <c r="B9">
-        <v>151477.76384395093</v>
+        <v>42413.090177951111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>274798.76090793649</v>
+        <v>22838.733436095237</v>
       </c>
       <c r="B10">
-        <v>151315.2223158463</v>
+        <v>42411.941897895711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>273915.41748571431</v>
+        <v>22680.398143444443</v>
       </c>
       <c r="B11">
-        <v>151304.63877445029</v>
+        <v>42410.439595124648</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>273580.07773809525</v>
+        <v>22419.374545880954</v>
       </c>
       <c r="B12">
-        <v>151151.22137871603</v>
+        <v>42403.298254232912</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273159.98264722223</v>
+        <v>22168.62663223016</v>
       </c>
       <c r="B13">
-        <v>151025.85616162923</v>
+        <v>42400.562565724722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>272374.03662619047</v>
+        <v>21693.253425706353</v>
       </c>
       <c r="B14">
-        <v>150820.14271791102</v>
+        <v>42397.089601065753</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>272321.49214126985</v>
+        <v>21067.810766563496</v>
       </c>
       <c r="B15">
-        <v>150817.86997148543</v>
+        <v>42395.897187792951</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>271260.0452126984</v>
+        <v>20478.588417801591</v>
       </c>
       <c r="B16">
-        <v>150802.01547310821</v>
+        <v>42388.371297421254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>270609.05956349208</v>
+        <v>20075.632209460317</v>
       </c>
       <c r="B17">
-        <v>150770.36765832157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>270334.10064999998</v>
-      </c>
-      <c r="B18">
-        <v>150713.09096264327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>270165.73944166669</v>
-      </c>
-      <c r="B19">
-        <v>150712.0789702443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>270028.54516984127</v>
-      </c>
-      <c r="B20">
-        <v>150690.27397923282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269265.96898333333</v>
-      </c>
-      <c r="B21">
-        <v>150606.27298236277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>267076.34619047621</v>
-      </c>
-      <c r="B22">
-        <v>150484.03241833631</v>
+        <v>42368.982290291955</v>
       </c>
     </row>
   </sheetData>

--- a/MOPSO_results/Pareto_results.xlsx
+++ b/MOPSO_results/Pareto_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MOPSO_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2B9187-FF20-452B-BCA2-34481D07F75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A055B65-B2CF-4042-B839-09BC26056563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{3F463BAF-9A66-4732-ADA4-A45CEAF19E00}"/>
+    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{3F463BAF-9A66-4732-ADA4-A45CEAF19E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,40 +574,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>26886.78454866667</c:v>
+                  <c:v>30743.093367825393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26533.970956515874</c:v>
+                  <c:v>30335.906089492062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26452.777576</c:v>
+                  <c:v>29761.7247102619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26349.710899857146</c:v>
+                  <c:v>29676.302675150797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25989.580200896824</c:v>
+                  <c:v>27848.607116579362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25385.539801190476</c:v>
+                  <c:v>27637.66826663493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23957.951733055557</c:v>
+                  <c:v>27021.215445650796</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23742.288712253969</c:v>
+                  <c:v>25579.767384301587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23164.858671888884</c:v>
+                  <c:v>25352.355010825398</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22838.733436095237</c:v>
+                  <c:v>25245.28510249206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22680.398143444443</c:v>
+                  <c:v>25043.245300579365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22419.374545880954</c:v>
+                  <c:v>24503.162571547626</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>22168.62663223016</c:v>
@@ -634,40 +634,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>42631.232569997112</c:v>
+                  <c:v>49459.818241907989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42582.290506999947</c:v>
+                  <c:v>49408.93923859932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42579.338505179738</c:v>
+                  <c:v>49373.032217095795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42557.815481252241</c:v>
+                  <c:v>49281.708138273018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42479.235197997863</c:v>
+                  <c:v>49272.438761957696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42436.832222303754</c:v>
+                  <c:v>49242.473318342083</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42429.248126643302</c:v>
+                  <c:v>49237.782916950382</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42415.93534136255</c:v>
+                  <c:v>49231.305561917521</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42413.090177951111</c:v>
+                  <c:v>49226.644130351007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42411.941897895711</c:v>
+                  <c:v>49226.333923400867</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42410.439595124648</c:v>
+                  <c:v>49216.329457651635</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42403.298254232912</c:v>
+                  <c:v>49203.778585232329</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42400.562565724722</c:v>
@@ -2367,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE233D-A269-42BF-B6CA-BF7F03B8F1F0}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
@@ -2520,130 +2520,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A175D-55E9-448D-9228-FA4D7F188291}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>26886.78454866667</v>
+        <v>61961.219091746025</v>
       </c>
       <c r="B1">
-        <v>42631.232569997112</v>
+        <v>104406.24433719121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>26533.970956515874</v>
+        <v>60590.393849626984</v>
       </c>
       <c r="B2">
-        <v>42582.290506999947</v>
+        <v>104373.36662059331</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26452.777576</v>
+        <v>60158.854472166655</v>
       </c>
       <c r="B3">
-        <v>42579.338505179738</v>
+        <v>104351.93147385828</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>26349.710899857146</v>
+        <v>59457.111118071429</v>
       </c>
       <c r="B4">
-        <v>42557.815481252241</v>
+        <v>104345.19833183862</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25989.580200896824</v>
+        <v>59333.791989698424</v>
       </c>
       <c r="B5">
-        <v>42479.235197997863</v>
+        <v>104338.33571347075</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>25385.539801190476</v>
+        <v>59197.217673301595</v>
       </c>
       <c r="B6">
-        <v>42436.832222303754</v>
+        <v>104329.52916002765</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>23957.951733055557</v>
+        <v>58808.197219746027</v>
       </c>
       <c r="B7">
-        <v>42429.248126643302</v>
+        <v>104317.28461845667</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>23742.288712253969</v>
+        <v>58718.066530817472</v>
       </c>
       <c r="B8">
-        <v>42415.93534136255</v>
+        <v>104303.84928939863</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>23164.858671888884</v>
+        <v>58712.274934357134</v>
       </c>
       <c r="B9">
-        <v>42413.090177951111</v>
+        <v>104298.08493208012</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>22838.733436095237</v>
+        <v>58411.725777190484</v>
       </c>
       <c r="B10">
-        <v>42411.941897895711</v>
+        <v>104290.37410851066</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>22680.398143444443</v>
+        <v>58227.843254023814</v>
       </c>
       <c r="B11">
-        <v>42410.439595124648</v>
+        <v>104285.5830168245</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>22419.374545880954</v>
+        <v>57976.593452444446</v>
       </c>
       <c r="B12">
-        <v>42403.298254232912</v>
+        <v>104270.73783238436</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>22168.62663223016</v>
+        <v>57157.279014746033</v>
       </c>
       <c r="B13">
-        <v>42400.562565724722</v>
+        <v>104178.1313657018</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>21693.253425706353</v>
+        <v>55745.999859682546</v>
       </c>
       <c r="B14">
-        <v>42397.089601065753</v>
+        <v>104161.73275952075</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>21067.810766563496</v>
+        <v>54343.967885547623</v>
       </c>
       <c r="B15">
-        <v>42395.897187792951</v>
+        <v>104128.1102226341</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2673,105 +2673,105 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>26886.78454866667</v>
+        <v>30743.093367825393</v>
       </c>
       <c r="B1">
-        <v>42631.232569997112</v>
+        <v>49459.818241907989</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>26533.970956515874</v>
+        <v>30335.906089492062</v>
       </c>
       <c r="B2">
-        <v>42582.290506999947</v>
+        <v>49408.93923859932</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26452.777576</v>
+        <v>29761.7247102619</v>
       </c>
       <c r="B3">
-        <v>42579.338505179738</v>
+        <v>49373.032217095795</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>26349.710899857146</v>
+        <v>29676.302675150797</v>
       </c>
       <c r="B4">
-        <v>42557.815481252241</v>
+        <v>49281.708138273018</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25989.580200896824</v>
+        <v>27848.607116579362</v>
       </c>
       <c r="B5">
-        <v>42479.235197997863</v>
+        <v>49272.438761957696</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>25385.539801190476</v>
+        <v>27637.66826663493</v>
       </c>
       <c r="B6">
-        <v>42436.832222303754</v>
+        <v>49242.473318342083</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>23957.951733055557</v>
+        <v>27021.215445650796</v>
       </c>
       <c r="B7">
-        <v>42429.248126643302</v>
+        <v>49237.782916950382</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>23742.288712253969</v>
+        <v>25579.767384301587</v>
       </c>
       <c r="B8">
-        <v>42415.93534136255</v>
+        <v>49231.305561917521</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>23164.858671888884</v>
+        <v>25352.355010825398</v>
       </c>
       <c r="B9">
-        <v>42413.090177951111</v>
+        <v>49226.644130351007</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>22838.733436095237</v>
+        <v>25245.28510249206</v>
       </c>
       <c r="B10">
-        <v>42411.941897895711</v>
+        <v>49226.333923400867</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>22680.398143444443</v>
+        <v>25043.245300579365</v>
       </c>
       <c r="B11">
-        <v>42410.439595124648</v>
+        <v>49216.329457651635</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>22419.374545880954</v>
+        <v>24503.162571547626</v>
       </c>
       <c r="B12">
-        <v>42403.298254232912</v>
+        <v>49203.778585232329</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2833,138 +2833,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>26886.78454866667</v>
+        <v>35160.108678039687</v>
       </c>
       <c r="B1">
-        <v>42631.232569997112</v>
+        <v>57024.785132577526</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>26533.970956515874</v>
+        <v>33788.263753388892</v>
       </c>
       <c r="B2">
-        <v>42582.290506999947</v>
+        <v>57017.433096893023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26452.777576</v>
+        <v>33780.887596301603</v>
       </c>
       <c r="B3">
-        <v>42579.338505179738</v>
+        <v>57015.646020809945</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>26349.710899857146</v>
+        <v>33669.063244626988</v>
       </c>
       <c r="B4">
-        <v>42557.815481252241</v>
+        <v>56965.812996184344</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25989.580200896824</v>
+        <v>32935.261843349203</v>
       </c>
       <c r="B5">
-        <v>42479.235197997863</v>
+        <v>56908.176980172546</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>25385.539801190476</v>
+        <v>32258.265254436505</v>
       </c>
       <c r="B6">
-        <v>42436.832222303754</v>
+        <v>56906.71641961464</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>23957.951733055557</v>
+        <v>31800.757953182539</v>
       </c>
       <c r="B7">
-        <v>42429.248126643302</v>
+        <v>56900.686930679032</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>23742.288712253969</v>
+        <v>31658.414320420634</v>
       </c>
       <c r="B8">
-        <v>42415.93534136255</v>
+        <v>56898.846778285391</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>23164.858671888884</v>
+        <v>31500.438846587313</v>
       </c>
       <c r="B9">
-        <v>42413.090177951111</v>
+        <v>56896.782013272466</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>22838.733436095237</v>
+        <v>31458.628946111108</v>
       </c>
       <c r="B10">
-        <v>42411.941897895711</v>
+        <v>56895.302765853245</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>22680.398143444443</v>
+        <v>31316.04712297619</v>
       </c>
       <c r="B11">
-        <v>42410.439595124648</v>
+        <v>56892.12726525269</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>22419.374545880954</v>
+        <v>31260.119531095232</v>
       </c>
       <c r="B12">
-        <v>42403.298254232912</v>
+        <v>56869.876924561227</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>22168.62663223016</v>
+        <v>30425.964674325405</v>
       </c>
       <c r="B13">
-        <v>42400.562565724722</v>
+        <v>56860.453904974325</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>21693.253425706353</v>
+        <v>30231.355734293651</v>
       </c>
       <c r="B14">
-        <v>42397.089601065753</v>
+        <v>56856.384568925227</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>21067.810766563496</v>
+        <v>30141.296142555551</v>
       </c>
       <c r="B15">
-        <v>42395.897187792951</v>
+        <v>56840.337085834901</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20478.588417801591</v>
+        <v>30115.295333063492</v>
       </c>
       <c r="B16">
-        <v>42388.371297421254</v>
+        <v>56835.698986705982</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>20075.632209460317</v>
+        <v>29045.387333261908</v>
       </c>
       <c r="B17">
-        <v>42368.982290291955</v>
+        <v>56819.165431032867</v>
       </c>
     </row>
   </sheetData>
@@ -2978,97 +2978,97 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>26886.78454866667</v>
+        <v>40481.226865222226</v>
       </c>
       <c r="B1">
-        <v>42631.232569997112</v>
+        <v>62752.16504503334</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>26533.970956515874</v>
+        <v>39618.117326190484</v>
       </c>
       <c r="B2">
-        <v>42582.290506999947</v>
+        <v>62749.089730943997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26452.777576</v>
+        <v>39386.217090015882</v>
       </c>
       <c r="B3">
-        <v>42579.338505179738</v>
+        <v>62680.187013443334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>26349.710899857146</v>
+        <v>39049.840002111108</v>
       </c>
       <c r="B4">
-        <v>42557.815481252241</v>
+        <v>62626.866519389427</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25989.580200896824</v>
+        <v>38993.497112134923</v>
       </c>
       <c r="B5">
-        <v>42479.235197997863</v>
+        <v>62584.040414993477</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>25385.539801190476</v>
+        <v>37001.1872969127</v>
       </c>
       <c r="B6">
-        <v>42436.832222303754</v>
+        <v>62569.895036240581</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>23957.951733055557</v>
+        <v>36277.389975142862</v>
       </c>
       <c r="B7">
-        <v>42429.248126643302</v>
+        <v>62552.587621605082</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>23742.288712253969</v>
+        <v>35764.976355071442</v>
       </c>
       <c r="B8">
-        <v>42415.93534136255</v>
+        <v>62531.844193476027</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>23164.858671888884</v>
+        <v>34612.136648023821</v>
       </c>
       <c r="B9">
-        <v>42413.090177951111</v>
+        <v>62506.702535990968</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>22838.733436095237</v>
+        <v>33460.978871396837</v>
       </c>
       <c r="B10">
-        <v>42411.941897895711</v>
+        <v>62506.69097979545</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>22680.398143444443</v>
+        <v>32490.77884961111</v>
       </c>
       <c r="B11">
-        <v>42410.439595124648</v>
+        <v>62481.391161802996</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3130,129 +3130,129 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>26886.78454866667</v>
+        <v>44261.756176404757</v>
       </c>
       <c r="B1">
-        <v>42631.232569997112</v>
+        <v>69981.308319807038</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>26533.970956515874</v>
+        <v>44089.056485269844</v>
       </c>
       <c r="B2">
-        <v>42582.290506999947</v>
+        <v>69850.706530402647</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26452.777576</v>
+        <v>44042.853761904757</v>
       </c>
       <c r="B3">
-        <v>42579.338505179738</v>
+        <v>69785.654187999491</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>26349.710899857146</v>
+        <v>43596.145434547616</v>
       </c>
       <c r="B4">
-        <v>42557.815481252241</v>
+        <v>69725.002346331006</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25989.580200896824</v>
+        <v>42634.310828309521</v>
       </c>
       <c r="B5">
-        <v>42479.235197997863</v>
+        <v>69709.819101265181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>25385.539801190476</v>
+        <v>42485.88253337302</v>
       </c>
       <c r="B6">
-        <v>42436.832222303754</v>
+        <v>69678.73122808148</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>23957.951733055557</v>
+        <v>42401.38185837301</v>
       </c>
       <c r="B7">
-        <v>42429.248126643302</v>
+        <v>69634.88268463171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>23742.288712253969</v>
+        <v>41858.545693238098</v>
       </c>
       <c r="B8">
-        <v>42415.93534136255</v>
+        <v>69623.865394583132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>23164.858671888884</v>
+        <v>41064.566053674607</v>
       </c>
       <c r="B9">
-        <v>42413.090177951111</v>
+        <v>69580.459595987457</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>22838.733436095237</v>
+        <v>39787.441282341271</v>
       </c>
       <c r="B10">
-        <v>42411.941897895711</v>
+        <v>69559.907086006686</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>22680.398143444443</v>
+        <v>39667.339777460322</v>
       </c>
       <c r="B11">
-        <v>42410.439595124648</v>
+        <v>69559.661252108024</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>22419.374545880954</v>
+        <v>37148.66843365079</v>
       </c>
       <c r="B12">
-        <v>42403.298254232912</v>
+        <v>69545.790719275799</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>22168.62663223016</v>
+        <v>36916.269689563487</v>
       </c>
       <c r="B13">
-        <v>42400.562565724722</v>
+        <v>69545.443096335192</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>21693.253425706353</v>
+        <v>36911.037868738094</v>
       </c>
       <c r="B14">
-        <v>42397.089601065753</v>
+        <v>69531.906271446715</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>21067.810766563496</v>
+        <v>33666.609161785709</v>
       </c>
       <c r="B15">
-        <v>42395.897187792951</v>
+        <v>69530.699473944973</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3282,129 +3282,129 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>26886.78454866667</v>
+        <v>46944.86398720635</v>
       </c>
       <c r="B1">
-        <v>42631.232569997112</v>
+        <v>76540.92842747696</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>26533.970956515874</v>
+        <v>46572.872166174617</v>
       </c>
       <c r="B2">
-        <v>42582.290506999947</v>
+        <v>76520.997301497671</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26452.777576</v>
+        <v>45713.970665785717</v>
       </c>
       <c r="B3">
-        <v>42579.338505179738</v>
+        <v>76465.90441139006</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>26349.710899857146</v>
+        <v>45604.717551523812</v>
       </c>
       <c r="B4">
-        <v>42557.815481252241</v>
+        <v>76445.91162063244</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25989.580200896824</v>
+        <v>45421.684209547624</v>
       </c>
       <c r="B5">
-        <v>42479.235197997863</v>
+        <v>76442.89334759496</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>25385.539801190476</v>
+        <v>45369.11617412699</v>
       </c>
       <c r="B6">
-        <v>42436.832222303754</v>
+        <v>76432.712349166672</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>23957.951733055557</v>
+        <v>45275.565564365083</v>
       </c>
       <c r="B7">
-        <v>42429.248126643302</v>
+        <v>76411.005446020572</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>23742.288712253969</v>
+        <v>45163.170625515886</v>
       </c>
       <c r="B8">
-        <v>42415.93534136255</v>
+        <v>76312.98436648339</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>23164.858671888884</v>
+        <v>43356.895160880958</v>
       </c>
       <c r="B9">
-        <v>42413.090177951111</v>
+        <v>76311.919997088655</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>22838.733436095237</v>
+        <v>43249.490092960317</v>
       </c>
       <c r="B10">
-        <v>42411.941897895711</v>
+        <v>76307.750158115814</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>22680.398143444443</v>
+        <v>43162.66334476191</v>
       </c>
       <c r="B11">
-        <v>42410.439595124648</v>
+        <v>76299.99211027319</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>22419.374545880954</v>
+        <v>43082.023250873026</v>
       </c>
       <c r="B12">
-        <v>42403.298254232912</v>
+        <v>76295.42208546061</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>22168.62663223016</v>
+        <v>42808.259104063502</v>
       </c>
       <c r="B13">
-        <v>42400.562565724722</v>
+        <v>76290.095530743478</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>21693.253425706353</v>
+        <v>42365.550598809525</v>
       </c>
       <c r="B14">
-        <v>42397.089601065753</v>
+        <v>76198.068138658826</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>21067.810766563496</v>
+        <v>37297.860293682548</v>
       </c>
       <c r="B15">
-        <v>42395.897187792951</v>
+        <v>76196.896648822745</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3434,105 +3434,105 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>26886.78454866667</v>
+        <v>49814.473540111125</v>
       </c>
       <c r="B1">
-        <v>42631.232569997112</v>
+        <v>83690.736964719676</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>26533.970956515874</v>
+        <v>49518.045789103169</v>
       </c>
       <c r="B2">
-        <v>42582.290506999947</v>
+        <v>83526.693088946005</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26452.777576</v>
+        <v>49420.712384825398</v>
       </c>
       <c r="B3">
-        <v>42579.338505179738</v>
+        <v>83484.539680449889</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>26349.710899857146</v>
+        <v>49267.349774365081</v>
       </c>
       <c r="B4">
-        <v>42557.815481252241</v>
+        <v>83340.095191563305</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25989.580200896824</v>
+        <v>48172.305292293648</v>
       </c>
       <c r="B5">
-        <v>42479.235197997863</v>
+        <v>83338.857090290068</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>25385.539801190476</v>
+        <v>48024.22058400794</v>
       </c>
       <c r="B6">
-        <v>42436.832222303754</v>
+        <v>83337.328671404568</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>23957.951733055557</v>
+        <v>47956.785580587304</v>
       </c>
       <c r="B7">
-        <v>42429.248126643302</v>
+        <v>83209.712239524932</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>23742.288712253969</v>
+        <v>45798.236038650793</v>
       </c>
       <c r="B8">
-        <v>42415.93534136255</v>
+        <v>83209.0784083748</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>23164.858671888884</v>
+        <v>45679.222622436508</v>
       </c>
       <c r="B9">
-        <v>42413.090177951111</v>
+        <v>83170.263913137576</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>22838.733436095237</v>
+        <v>44406.670697246038</v>
       </c>
       <c r="B10">
-        <v>42411.941897895711</v>
+        <v>83167.896283477632</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>22680.398143444443</v>
+        <v>44159.847640523803</v>
       </c>
       <c r="B11">
-        <v>42410.439595124648</v>
+        <v>83127.701126840315</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>22419.374545880954</v>
+        <v>42620.951107206361</v>
       </c>
       <c r="B12">
-        <v>42403.298254232912</v>
+        <v>83123.845794792549</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3593,138 +3593,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>26886.78454866667</v>
+        <v>52961.840084007948</v>
       </c>
       <c r="B1">
-        <v>42631.232569997112</v>
+        <v>90478.778505510199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>26533.970956515874</v>
+        <v>51986.366609214281</v>
       </c>
       <c r="B2">
-        <v>42582.290506999947</v>
+        <v>90355.268483362976</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26452.777576</v>
+        <v>51270.989205777791</v>
       </c>
       <c r="B3">
-        <v>42579.338505179738</v>
+        <v>90349.776039818273</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>26349.710899857146</v>
+        <v>51219.703862198417</v>
       </c>
       <c r="B4">
-        <v>42557.815481252241</v>
+        <v>90325.158538978823</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25989.580200896824</v>
+        <v>50931.103311833329</v>
       </c>
       <c r="B5">
-        <v>42479.235197997863</v>
+        <v>90229.190571054787</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>25385.539801190476</v>
+        <v>49974.209383579371</v>
       </c>
       <c r="B6">
-        <v>42436.832222303754</v>
+        <v>90211.268323394135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>23957.951733055557</v>
+        <v>49474.421739833342</v>
       </c>
       <c r="B7">
-        <v>42429.248126643302</v>
+        <v>90193.087708302148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>23742.288712253969</v>
+        <v>49309.193347142864</v>
       </c>
       <c r="B8">
-        <v>42415.93534136255</v>
+        <v>90162.2505788126</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>23164.858671888884</v>
+        <v>47577.075147444455</v>
       </c>
       <c r="B9">
-        <v>42413.090177951111</v>
+        <v>90157.351107250273</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>22838.733436095237</v>
+        <v>47306.215045388904</v>
       </c>
       <c r="B10">
-        <v>42411.941897895711</v>
+        <v>90150.964826466981</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>22680.398143444443</v>
+        <v>47301.878763174602</v>
       </c>
       <c r="B11">
-        <v>42410.439595124648</v>
+        <v>90148.432557198917</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>22419.374545880954</v>
+        <v>47163.769633968244</v>
       </c>
       <c r="B12">
-        <v>42403.298254232912</v>
+        <v>90139.504281611124</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>22168.62663223016</v>
+        <v>46990.181679158733</v>
       </c>
       <c r="B13">
-        <v>42400.562565724722</v>
+        <v>90121.763942421836</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>21693.253425706353</v>
+        <v>46702.463240809535</v>
       </c>
       <c r="B14">
-        <v>42397.089601065753</v>
+        <v>90115.551979697717</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>21067.810766563496</v>
+        <v>45859.298435833334</v>
       </c>
       <c r="B15">
-        <v>42395.897187792951</v>
+        <v>90091.62281893297</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20478.588417801591</v>
+        <v>45499.421476944452</v>
       </c>
       <c r="B16">
-        <v>42388.371297421254</v>
+        <v>90078.768644961994</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>20075.632209460317</v>
+        <v>45011.991269912702</v>
       </c>
       <c r="B17">
-        <v>42368.982290291955</v>
+        <v>90052.019721636985</v>
       </c>
     </row>
   </sheetData>
@@ -3745,138 +3745,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>26886.78454866667</v>
+        <v>56426.733953539704</v>
       </c>
       <c r="B1">
-        <v>42631.232569997112</v>
+        <v>97249.234930510327</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>26533.970956515874</v>
+        <v>55023.317506007945</v>
       </c>
       <c r="B2">
-        <v>42582.290506999947</v>
+        <v>97245.987935933517</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26452.777576</v>
+        <v>54772.792601841269</v>
       </c>
       <c r="B3">
-        <v>42579.338505179738</v>
+        <v>97231.658798013115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>26349.710899857146</v>
+        <v>54667.902898936503</v>
       </c>
       <c r="B4">
-        <v>42557.815481252241</v>
+        <v>97205.217603707817</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25989.580200896824</v>
+        <v>54480.438719579353</v>
       </c>
       <c r="B5">
-        <v>42479.235197997863</v>
+        <v>97141.448347955215</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>25385.539801190476</v>
+        <v>54053.500967150801</v>
       </c>
       <c r="B6">
-        <v>42436.832222303754</v>
+        <v>97132.476336674168</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>23957.951733055557</v>
+        <v>54025.636591952367</v>
       </c>
       <c r="B7">
-        <v>42429.248126643302</v>
+        <v>97129.593042998065</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>23742.288712253969</v>
+        <v>53764.382422182534</v>
       </c>
       <c r="B8">
-        <v>42415.93534136255</v>
+        <v>97120.19245497002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>23164.858671888884</v>
+        <v>53489.559612119054</v>
       </c>
       <c r="B9">
-        <v>42413.090177951111</v>
+        <v>97088.184171497895</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>22838.733436095237</v>
+        <v>52668.449702317463</v>
       </c>
       <c r="B10">
-        <v>42411.941897895711</v>
+        <v>97087.320067917331</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>22680.398143444443</v>
+        <v>52279.498617769845</v>
       </c>
       <c r="B11">
-        <v>42410.439595124648</v>
+        <v>97085.588996604376</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>22419.374545880954</v>
+        <v>51997.317222777783</v>
       </c>
       <c r="B12">
-        <v>42403.298254232912</v>
+        <v>97059.351746821223</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>22168.62663223016</v>
+        <v>50878.946744801593</v>
       </c>
       <c r="B13">
-        <v>42400.562565724722</v>
+        <v>97058.034520923044</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>21693.253425706353</v>
+        <v>50172.662252317445</v>
       </c>
       <c r="B14">
-        <v>42397.089601065753</v>
+        <v>97056.4241792713</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>21067.810766563496</v>
+        <v>49786.15587931747</v>
       </c>
       <c r="B15">
-        <v>42395.897187792951</v>
+        <v>97046.497907308309</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20478.588417801591</v>
+        <v>49678.557067507951</v>
       </c>
       <c r="B16">
-        <v>42388.371297421254</v>
+        <v>97022.52823470952</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>20075.632209460317</v>
+        <v>48629.583375111113</v>
       </c>
       <c r="B17">
-        <v>42368.982290291955</v>
+        <v>96959.171255664201</v>
       </c>
     </row>
   </sheetData>
